--- a/Resources/dataentry.xlsx
+++ b/Resources/dataentry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="688">
   <si>
     <t>DIV</t>
   </si>
@@ -1022,9 +1022,6 @@
     <t>Avoca</t>
   </si>
   <si>
-    <t xml:space="preserve"> IN</t>
-  </si>
-  <si>
     <t>Lawrence</t>
   </si>
   <si>
@@ -1110,9 +1107,6 @@
     <t>Spencer</t>
   </si>
   <si>
-    <t xml:space="preserve"> In</t>
-  </si>
-  <si>
     <t>Springville</t>
   </si>
   <si>
@@ -1120,9 +1114,6 @@
   </si>
   <si>
     <t>Charlotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NC</t>
   </si>
   <si>
     <t>Mecklenburg</t>
@@ -2013,9 +2004,6 @@
   </si>
   <si>
     <t>Big Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UT</t>
   </si>
   <si>
     <t>Kane</t>
@@ -2033,9 +2021,6 @@
     <t>Bitter Springs</t>
   </si>
   <si>
-    <t xml:space="preserve"> AZ</t>
-  </si>
-  <si>
     <t>Coconino</t>
   </si>
   <si>
@@ -2101,6 +2086,15 @@
   </si>
   <si>
     <t>Tuba City</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>NC</t>
   </si>
 </sst>
 </file>
@@ -2712,13 +2706,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="000"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2732,7 +2726,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y468" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y468" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:Y468"/>
   <sortState ref="A2:Y468">
     <sortCondition ref="A2:A468"/>
@@ -2741,31 +2735,31 @@
     <sortCondition ref="C2:C468"/>
   </sortState>
   <tableColumns count="25">
-    <tableColumn id="1" name="DIV" dataDxfId="26"/>
-    <tableColumn id="2" name="Lawson" dataDxfId="25"/>
-    <tableColumn id="3" name="City" dataDxfId="24"/>
-    <tableColumn id="4" name="State" dataDxfId="23"/>
-    <tableColumn id="5" name="County" dataDxfId="22"/>
-    <tableColumn id="6" name="Zip Code" dataDxfId="21"/>
-    <tableColumn id="7" name="County Tax Code" dataDxfId="20"/>
-    <tableColumn id="8" name="Tax Rate %" dataDxfId="19"/>
-    <tableColumn id="9" name="Resi Tax Code" dataDxfId="18"/>
-    <tableColumn id="10" name="IND Tax Code" dataDxfId="17"/>
-    <tableColumn id="11" name="TERR Code" dataDxfId="16"/>
-    <tableColumn id="12" name="Other Code" dataDxfId="15"/>
-    <tableColumn id="13" name="Disposal Code" dataDxfId="14"/>
-    <tableColumn id="14" name="Residential" dataDxfId="13"/>
-    <tableColumn id="15" name="Residential_x000d_ Recycling" dataDxfId="12"/>
-    <tableColumn id="16" name="Yard Waste" dataDxfId="11"/>
-    <tableColumn id="17" name="Commercial" dataDxfId="10"/>
-    <tableColumn id="18" name="Commercial_x000d_ Recycling" dataDxfId="9"/>
-    <tableColumn id="19" name="Industrial" dataDxfId="8"/>
-    <tableColumn id="20" name="Industrial Recycling" dataDxfId="7"/>
-    <tableColumn id="21" name="Acquisition Code" dataDxfId="6"/>
-    <tableColumn id="22" name="Admin Fee" dataDxfId="5"/>
-    <tableColumn id="23" name="Rate Tax App Code" dataDxfId="4"/>
-    <tableColumn id="24" name="Other Code - Business Center" dataDxfId="3"/>
-    <tableColumn id="25" name="Notes" dataDxfId="2"/>
+    <tableColumn id="1" name="DIV" dataDxfId="24"/>
+    <tableColumn id="2" name="Lawson" dataDxfId="23"/>
+    <tableColumn id="3" name="City" dataDxfId="22"/>
+    <tableColumn id="4" name="State" dataDxfId="21"/>
+    <tableColumn id="5" name="County" dataDxfId="20"/>
+    <tableColumn id="6" name="Zip Code" dataDxfId="19"/>
+    <tableColumn id="7" name="County Tax Code" dataDxfId="18"/>
+    <tableColumn id="8" name="Tax Rate %" dataDxfId="17"/>
+    <tableColumn id="9" name="Resi Tax Code" dataDxfId="16"/>
+    <tableColumn id="10" name="IND Tax Code" dataDxfId="15"/>
+    <tableColumn id="11" name="TERR Code" dataDxfId="14"/>
+    <tableColumn id="12" name="Other Code" dataDxfId="13"/>
+    <tableColumn id="13" name="Disposal Code" dataDxfId="12"/>
+    <tableColumn id="14" name="Residential" dataDxfId="11"/>
+    <tableColumn id="15" name="Residential_x000d_ Recycling" dataDxfId="10"/>
+    <tableColumn id="16" name="Yard Waste" dataDxfId="9"/>
+    <tableColumn id="17" name="Commercial" dataDxfId="8"/>
+    <tableColumn id="18" name="Commercial_x000d_ Recycling" dataDxfId="7"/>
+    <tableColumn id="19" name="Industrial" dataDxfId="6"/>
+    <tableColumn id="20" name="Industrial Recycling" dataDxfId="5"/>
+    <tableColumn id="21" name="Acquisition Code" dataDxfId="4"/>
+    <tableColumn id="22" name="Admin Fee" dataDxfId="3"/>
+    <tableColumn id="23" name="Rate Tax App Code" dataDxfId="2"/>
+    <tableColumn id="24" name="Other Code - Business Center" dataDxfId="1"/>
+    <tableColumn id="25" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3060,7 +3054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13609,13 +13605,13 @@
         <v>4516</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F203" s="2">
         <v>86036</v>
@@ -13633,7 +13629,7 @@
         <v>29</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N203" s="2">
         <v>30</v>
@@ -13642,7 +13638,7 @@
         <v>31</v>
       </c>
       <c r="P203" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q203" s="2">
         <v>10</v>
@@ -13662,13 +13658,13 @@
         <v>4516</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F204" s="2">
         <v>86033</v>
@@ -13686,7 +13682,7 @@
         <v>29</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N204" s="2">
         <v>30</v>
@@ -13695,7 +13691,7 @@
         <v>31</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q204" s="2">
         <v>10</v>
@@ -13715,13 +13711,13 @@
         <v>4516</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F205" s="2">
         <v>86036</v>
@@ -13739,7 +13735,7 @@
         <v>29</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N205" s="2">
         <v>30</v>
@@ -13748,7 +13744,7 @@
         <v>31</v>
       </c>
       <c r="P205" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q205" s="2">
         <v>10</v>
@@ -13768,13 +13764,13 @@
         <v>4516</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F206" s="2">
         <v>86022</v>
@@ -13792,7 +13788,7 @@
         <v>29</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N206" s="2">
         <v>30</v>
@@ -13801,7 +13797,7 @@
         <v>31</v>
       </c>
       <c r="P206" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q206" s="2">
         <v>10</v>
@@ -13821,13 +13817,13 @@
         <v>4516</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F207" s="2">
         <v>86040</v>
@@ -13845,7 +13841,7 @@
         <v>29</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N207" s="2">
         <v>30</v>
@@ -13854,7 +13850,7 @@
         <v>31</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q207" s="2">
         <v>10</v>
@@ -13874,13 +13870,13 @@
         <v>4516</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F208" s="2">
         <v>86022</v>
@@ -13898,7 +13894,7 @@
         <v>29</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N208" s="2">
         <v>30</v>
@@ -13907,7 +13903,7 @@
         <v>31</v>
       </c>
       <c r="P208" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q208" s="2">
         <v>10</v>
@@ -13927,13 +13923,13 @@
         <v>4516</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F209" s="2">
         <v>86053</v>
@@ -13951,7 +13947,7 @@
         <v>29</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N209" s="2">
         <v>30</v>
@@ -13960,7 +13956,7 @@
         <v>31</v>
       </c>
       <c r="P209" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q209" s="2">
         <v>10</v>
@@ -13980,13 +13976,13 @@
         <v>4516</v>
       </c>
       <c r="C210" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>667</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F210" s="2">
         <v>86033</v>
@@ -14004,7 +14000,7 @@
         <v>29</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N210" s="2">
         <v>30</v>
@@ -14013,7 +14009,7 @@
         <v>31</v>
       </c>
       <c r="P210" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q210" s="2">
         <v>10</v>
@@ -14033,13 +14029,13 @@
         <v>4516</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F211" s="2">
         <v>86040</v>
@@ -14057,7 +14053,7 @@
         <v>29</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N211" s="2">
         <v>30</v>
@@ -14066,7 +14062,7 @@
         <v>31</v>
       </c>
       <c r="P211" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q211" s="2">
         <v>10</v>
@@ -14086,13 +14082,13 @@
         <v>4516</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F212" s="2">
         <v>86036</v>
@@ -14110,7 +14106,7 @@
         <v>29</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N212" s="2">
         <v>30</v>
@@ -14119,7 +14115,7 @@
         <v>31</v>
       </c>
       <c r="P212" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q212" s="2">
         <v>10</v>
@@ -14139,13 +14135,13 @@
         <v>4516</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F213" s="2">
         <v>86036</v>
@@ -14163,7 +14159,7 @@
         <v>29</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N213" s="2">
         <v>30</v>
@@ -14172,7 +14168,7 @@
         <v>31</v>
       </c>
       <c r="P213" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q213" s="2">
         <v>10</v>
@@ -14192,13 +14188,13 @@
         <v>4516</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F214" s="2">
         <v>86052</v>
@@ -14216,7 +14212,7 @@
         <v>29</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N214" s="2">
         <v>30</v>
@@ -14225,7 +14221,7 @@
         <v>31</v>
       </c>
       <c r="P214" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q214" s="2">
         <v>10</v>
@@ -14245,13 +14241,13 @@
         <v>4516</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F215" s="2">
         <v>86040</v>
@@ -14269,7 +14265,7 @@
         <v>29</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N215" s="2">
         <v>30</v>
@@ -14278,7 +14274,7 @@
         <v>31</v>
       </c>
       <c r="P215" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q215" s="2">
         <v>10</v>
@@ -14298,13 +14294,13 @@
         <v>4516</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F216" s="2">
         <v>86054</v>
@@ -14322,7 +14318,7 @@
         <v>29</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N216" s="2">
         <v>30</v>
@@ -14331,7 +14327,7 @@
         <v>31</v>
       </c>
       <c r="P216" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q216" s="2">
         <v>10</v>
@@ -14351,13 +14347,13 @@
         <v>4516</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F217" s="2">
         <v>86044</v>
@@ -14375,7 +14371,7 @@
         <v>29</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N217" s="2">
         <v>30</v>
@@ -14384,7 +14380,7 @@
         <v>31</v>
       </c>
       <c r="P217" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q217" s="2">
         <v>10</v>
@@ -14404,13 +14400,13 @@
         <v>4516</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F218" s="2">
         <v>86045</v>
@@ -14428,7 +14424,7 @@
         <v>29</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N218" s="2">
         <v>30</v>
@@ -14437,7 +14433,7 @@
         <v>31</v>
       </c>
       <c r="P218" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q218" s="2">
         <v>10</v>
@@ -14457,13 +14453,13 @@
         <v>4516</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F219" s="2">
         <v>84741</v>
@@ -14481,7 +14477,7 @@
         <v>29</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N219" s="2">
         <v>30</v>
@@ -14490,7 +14486,7 @@
         <v>31</v>
       </c>
       <c r="P219" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q219" s="2">
         <v>10</v>
@@ -14510,13 +14506,13 @@
         <v>4516</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F220" s="2">
         <v>84741</v>
@@ -14534,7 +14530,7 @@
         <v>29</v>
       </c>
       <c r="M220" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N220" s="2">
         <v>30</v>
@@ -14543,7 +14539,7 @@
         <v>31</v>
       </c>
       <c r="P220" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q220" s="2">
         <v>10</v>
@@ -14563,13 +14559,13 @@
         <v>4516</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F221" s="2">
         <v>84741</v>
@@ -14587,7 +14583,7 @@
         <v>29</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="N221" s="2">
         <v>30</v>
@@ -14596,7 +14592,7 @@
         <v>31</v>
       </c>
       <c r="P221" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q221" s="2">
         <v>10</v>
@@ -14616,13 +14612,13 @@
         <v>4516</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F222" s="2">
         <v>84741</v>
@@ -14640,7 +14636,7 @@
         <v>29</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N222" s="2">
         <v>30</v>
@@ -14649,7 +14645,7 @@
         <v>31</v>
       </c>
       <c r="P222" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q222" s="2">
         <v>10</v>
@@ -14669,13 +14665,13 @@
         <v>4516</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="I223" s="2">
         <v>5163</v>
@@ -14690,7 +14686,7 @@
         <v>29</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N223" s="2">
         <v>30</v>
@@ -14699,7 +14695,7 @@
         <v>31</v>
       </c>
       <c r="P223" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q223" s="2">
         <v>10</v>
@@ -17141,10 +17137,10 @@
         <v>332</v>
       </c>
       <c r="D265" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="F265" s="2">
         <v>47420</v>
@@ -17159,7 +17155,7 @@
         <v>420</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N265" s="2">
         <v>32</v>
@@ -17200,13 +17196,13 @@
         <v>3125</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D266" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="F266" s="2">
         <v>47421</v>
@@ -17221,7 +17217,7 @@
         <v>421</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N266" s="2">
         <v>32</v>
@@ -17262,28 +17258,28 @@
         <v>3125</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F267" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="I267" s="2">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2">
+        <v>0</v>
+      </c>
+      <c r="K267" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="I267" s="2">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2">
-        <v>0</v>
-      </c>
-      <c r="K267" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="M267" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N267" s="2">
         <v>32</v>
@@ -17324,13 +17320,13 @@
         <v>3125</v>
       </c>
       <c r="C268" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="F268" s="2">
         <v>47460</v>
@@ -17345,13 +17341,13 @@
         <v>460</v>
       </c>
       <c r="M268" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N268" s="2">
         <v>35</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P268" s="2" t="s">
         <v>29</v>
@@ -17386,13 +17382,13 @@
         <v>3125</v>
       </c>
       <c r="C269" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="F269" s="2">
         <v>46120</v>
@@ -17407,13 +17403,13 @@
         <v>120</v>
       </c>
       <c r="M269" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N269" s="2">
         <v>35</v>
       </c>
       <c r="O269" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P269" s="2" t="s">
         <v>29</v>
@@ -17448,10 +17444,10 @@
         <v>3125</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>93</v>
@@ -17469,7 +17465,7 @@
         <v>429</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N270" s="2">
         <v>32</v>
@@ -17510,13 +17506,13 @@
         <v>3125</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F271" s="2">
         <v>47433</v>
@@ -17531,7 +17527,7 @@
         <v>433</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N271" s="2">
         <v>32</v>
@@ -17572,10 +17568,10 @@
         <v>3125</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>219</v>
@@ -17593,13 +17589,13 @@
         <v>135</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N272" s="2">
         <v>35</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P272" s="2" t="s">
         <v>29</v>
@@ -17634,10 +17630,10 @@
         <v>3125</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>93</v>
@@ -17655,7 +17651,7 @@
         <v>434</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N273" s="2">
         <v>32</v>
@@ -17696,13 +17692,13 @@
         <v>3125</v>
       </c>
       <c r="C274" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="F274" s="2">
         <v>46151</v>
@@ -17717,7 +17713,7 @@
         <v>151</v>
       </c>
       <c r="M274" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N274" s="2">
         <v>32</v>
@@ -17758,13 +17754,13 @@
         <v>3125</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D275" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="F275" s="2">
         <v>47446</v>
@@ -17779,7 +17775,7 @@
         <v>446</v>
       </c>
       <c r="M275" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N275" s="2">
         <v>32</v>
@@ -17820,13 +17816,13 @@
         <v>3125</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F276" s="2">
         <v>46160</v>
@@ -17841,7 +17837,7 @@
         <v>160</v>
       </c>
       <c r="M276" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N276" s="2">
         <v>32</v>
@@ -17882,13 +17878,13 @@
         <v>3125</v>
       </c>
       <c r="C277" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="F277" s="2">
         <v>47448</v>
@@ -17903,7 +17899,7 @@
         <v>448</v>
       </c>
       <c r="M277" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N277" s="2">
         <v>32</v>
@@ -17944,13 +17940,13 @@
         <v>3125</v>
       </c>
       <c r="C278" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="F278" s="2">
         <v>47264</v>
@@ -17965,7 +17961,7 @@
         <v>264</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N278" s="2">
         <v>32</v>
@@ -18006,13 +18002,13 @@
         <v>3125</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D279" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="F279" s="2">
         <v>47451</v>
@@ -18027,7 +18023,7 @@
         <v>451</v>
       </c>
       <c r="M279" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N279" s="2">
         <v>32</v>
@@ -18068,13 +18064,13 @@
         <v>3125</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F280" s="2">
         <v>46170</v>
@@ -18089,13 +18085,13 @@
         <v>170</v>
       </c>
       <c r="M280" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N280" s="2">
         <v>35</v>
       </c>
       <c r="O280" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P280" s="2" t="s">
         <v>29</v>
@@ -18130,10 +18126,10 @@
         <v>3125</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>93</v>
@@ -18151,7 +18147,7 @@
         <v>458</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N281" s="2">
         <v>32</v>
@@ -18192,13 +18188,13 @@
         <v>3125</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>362</v>
+        <v>686</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F282" s="2">
         <v>47460</v>
@@ -18213,7 +18209,7 @@
         <v>460</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N282" s="2">
         <v>32</v>
@@ -18254,13 +18250,13 @@
         <v>3125</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D283" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="E283" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="F283" s="2">
         <v>47462</v>
@@ -18275,7 +18271,7 @@
         <v>462</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N283" s="2">
         <v>32</v>
@@ -18316,10 +18312,10 @@
         <v>3125</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>93</v>
@@ -18337,7 +18333,7 @@
         <v>463</v>
       </c>
       <c r="M284" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N284" s="2">
         <v>32</v>
@@ -18381,10 +18377,10 @@
         <v>60</v>
       </c>
       <c r="D285" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="E285" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="F285" s="2">
         <v>47470</v>
@@ -18399,7 +18395,7 @@
         <v>470</v>
       </c>
       <c r="M285" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N285" s="2">
         <v>32</v>
@@ -18440,16 +18436,16 @@
         <v>3125</v>
       </c>
       <c r="C286" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F286" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E286" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F286" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="I286" s="2">
         <v>0</v>
@@ -18461,7 +18457,7 @@
         <v>60</v>
       </c>
       <c r="M286" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N286" s="2">
         <v>30</v>
@@ -18485,16 +18481,16 @@
         <v>20</v>
       </c>
       <c r="U286" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="V286" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="W286" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="X286" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="V286" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="W286" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="X286" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="287" spans="1:24" x14ac:dyDescent="0.25">
@@ -18505,13 +18501,13 @@
         <v>3138</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F287" s="2">
         <v>62410</v>
@@ -18529,7 +18525,7 @@
         <v>29</v>
       </c>
       <c r="M287" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N287" s="2">
         <v>31</v>
@@ -18558,13 +18554,13 @@
         <v>3138</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F288" s="2">
         <v>62811</v>
@@ -18582,7 +18578,7 @@
         <v>29</v>
       </c>
       <c r="M288" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N288" s="2">
         <v>36</v>
@@ -18611,13 +18607,13 @@
         <v>3138</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F289" s="2">
         <v>62818</v>
@@ -18635,7 +18631,7 @@
         <v>29</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N289" s="2">
         <v>36</v>
@@ -18664,13 +18660,13 @@
         <v>3138</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F290" s="2">
         <v>62420</v>
@@ -18688,7 +18684,7 @@
         <v>29</v>
       </c>
       <c r="M290" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N290" s="2">
         <v>36</v>
@@ -18717,13 +18713,13 @@
         <v>3138</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F291" s="2">
         <v>62844</v>
@@ -18741,7 +18737,7 @@
         <v>29</v>
       </c>
       <c r="M291" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N291" s="2">
         <v>36</v>
@@ -18770,13 +18766,13 @@
         <v>3138</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F292" s="2">
         <v>62439</v>
@@ -18794,7 +18790,7 @@
         <v>29</v>
       </c>
       <c r="M292" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N292" s="2">
         <v>31</v>
@@ -18823,13 +18819,13 @@
         <v>3138</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F293" s="2">
         <v>62427</v>
@@ -18847,7 +18843,7 @@
         <v>29</v>
       </c>
       <c r="M293" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N293" s="2">
         <v>16</v>
@@ -18876,13 +18872,13 @@
         <v>3138</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F294" s="2">
         <v>62433</v>
@@ -18900,7 +18896,7 @@
         <v>29</v>
       </c>
       <c r="M294" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N294" s="2">
         <v>36</v>
@@ -18929,13 +18925,13 @@
         <v>3138</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F295" s="2">
         <v>62863</v>
@@ -18953,7 +18949,7 @@
         <v>29</v>
       </c>
       <c r="M295" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N295" s="2">
         <v>16</v>
@@ -18982,10 +18978,10 @@
         <v>3138</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>47</v>
@@ -19006,7 +19002,7 @@
         <v>29</v>
       </c>
       <c r="M296" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N296" s="2">
         <v>16</v>
@@ -19035,13 +19031,13 @@
         <v>3138</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F297" s="2">
         <v>62449</v>
@@ -19059,7 +19055,7 @@
         <v>29</v>
       </c>
       <c r="M297" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N297" s="2">
         <v>36</v>
@@ -19088,13 +19084,13 @@
         <v>3138</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F298" s="2">
         <v>62450</v>
@@ -19112,7 +19108,7 @@
         <v>29</v>
       </c>
       <c r="M298" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N298" s="2">
         <v>36</v>
@@ -19141,13 +19137,13 @@
         <v>3138</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F299" s="2">
         <v>62451</v>
@@ -19165,7 +19161,7 @@
         <v>29</v>
       </c>
       <c r="M299" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N299" s="2">
         <v>36</v>
@@ -19194,13 +19190,13 @@
         <v>3138</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F300" s="2">
         <v>62466</v>
@@ -19218,7 +19214,7 @@
         <v>29</v>
       </c>
       <c r="M300" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N300" s="2">
         <v>36</v>
@@ -19247,13 +19243,13 @@
         <v>3138</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F301" s="2">
         <v>62815</v>
@@ -19271,7 +19267,7 @@
         <v>29</v>
       </c>
       <c r="M301" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N301" s="2">
         <v>36</v>
@@ -19300,13 +19296,13 @@
         <v>3138</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F302" s="2">
         <v>62433</v>
@@ -19324,7 +19320,7 @@
         <v>29</v>
       </c>
       <c r="M302" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N302" s="2">
         <v>36</v>
@@ -19353,13 +19349,13 @@
         <v>3138</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F303" s="2">
         <v>62852</v>
@@ -19377,7 +19373,7 @@
         <v>29</v>
       </c>
       <c r="M303" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N303" s="2">
         <v>36</v>
@@ -19406,13 +19402,13 @@
         <v>3138</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F304" s="2">
         <v>62868</v>
@@ -19430,7 +19426,7 @@
         <v>29</v>
       </c>
       <c r="M304" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N304" s="2">
         <v>36</v>
@@ -19459,13 +19455,13 @@
         <v>3138</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F305" s="2">
         <v>62899</v>
@@ -19483,7 +19479,7 @@
         <v>29</v>
       </c>
       <c r="M305" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N305" s="2">
         <v>36</v>
@@ -19512,13 +19508,13 @@
         <v>3138</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F306" s="2">
         <v>62476</v>
@@ -19536,7 +19532,7 @@
         <v>29</v>
       </c>
       <c r="M306" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N306" s="2">
         <v>36</v>
@@ -19565,13 +19561,13 @@
         <v>3138</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F307" s="2">
         <v>47553</v>
@@ -19589,7 +19585,7 @@
         <v>29</v>
       </c>
       <c r="M307" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N307" s="2">
         <v>31</v>
@@ -19618,13 +19614,13 @@
         <v>3138</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F308" s="2">
         <v>47512</v>
@@ -19642,7 +19638,7 @@
         <v>29</v>
       </c>
       <c r="M308" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N308" s="2">
         <v>31</v>
@@ -19671,13 +19667,13 @@
         <v>3138</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F309" s="2">
         <v>47516</v>
@@ -19695,7 +19691,7 @@
         <v>29</v>
       </c>
       <c r="M309" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N309" s="2">
         <v>31</v>
@@ -19724,13 +19720,13 @@
         <v>3138</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F310" s="2">
         <v>47522</v>
@@ -19748,7 +19744,7 @@
         <v>29</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N310" s="2">
         <v>31</v>
@@ -19777,13 +19773,13 @@
         <v>3138</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F311" s="2">
         <v>47524</v>
@@ -19801,7 +19797,7 @@
         <v>29</v>
       </c>
       <c r="M311" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N311" s="2">
         <v>31</v>
@@ -19830,13 +19826,13 @@
         <v>3138</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F312" s="2">
         <v>47528</v>
@@ -19854,7 +19850,7 @@
         <v>29</v>
       </c>
       <c r="M312" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N312" s="2">
         <v>31</v>
@@ -19883,13 +19879,13 @@
         <v>3138</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F313" s="2">
         <v>47529</v>
@@ -19907,7 +19903,7 @@
         <v>29</v>
       </c>
       <c r="M313" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N313" s="2">
         <v>31</v>
@@ -19936,13 +19932,13 @@
         <v>3138</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F314" s="2">
         <v>47553</v>
@@ -19960,7 +19956,7 @@
         <v>29</v>
       </c>
       <c r="M314" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N314" s="2">
         <v>31</v>
@@ -19989,13 +19985,13 @@
         <v>3138</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F315" s="2">
         <v>47557</v>
@@ -20013,7 +20009,7 @@
         <v>29</v>
       </c>
       <c r="M315" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N315" s="2">
         <v>31</v>
@@ -20048,7 +20044,7 @@
         <v>26</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F316" s="2">
         <v>47558</v>
@@ -20066,7 +20062,7 @@
         <v>29</v>
       </c>
       <c r="M316" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N316" s="2">
         <v>31</v>
@@ -20095,13 +20091,13 @@
         <v>3138</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F317" s="2">
         <v>47561</v>
@@ -20119,7 +20115,7 @@
         <v>29</v>
       </c>
       <c r="M317" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N317" s="2">
         <v>31</v>
@@ -20148,13 +20144,13 @@
         <v>3138</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F318" s="2">
         <v>47562</v>
@@ -20172,7 +20168,7 @@
         <v>29</v>
       </c>
       <c r="M318" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N318" s="2">
         <v>31</v>
@@ -20201,13 +20197,13 @@
         <v>3138</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F319" s="2">
         <v>47568</v>
@@ -20225,7 +20221,7 @@
         <v>29</v>
       </c>
       <c r="M319" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N319" s="2">
         <v>31</v>
@@ -20254,13 +20250,13 @@
         <v>3138</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F320" s="2">
         <v>47578</v>
@@ -20278,7 +20274,7 @@
         <v>29</v>
       </c>
       <c r="M320" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N320" s="2">
         <v>31</v>
@@ -20307,13 +20303,13 @@
         <v>3138</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F321" s="2">
         <v>47581</v>
@@ -20331,7 +20327,7 @@
         <v>29</v>
       </c>
       <c r="M321" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N321" s="2">
         <v>31</v>
@@ -20360,13 +20356,13 @@
         <v>3138</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F322" s="2">
         <v>47561</v>
@@ -20384,7 +20380,7 @@
         <v>29</v>
       </c>
       <c r="M322" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N322" s="2">
         <v>31</v>
@@ -20413,13 +20409,13 @@
         <v>3138</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F323" s="2">
         <v>47591</v>
@@ -20437,7 +20433,7 @@
         <v>29</v>
       </c>
       <c r="M323" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N323" s="2">
         <v>31</v>
@@ -20472,7 +20468,7 @@
         <v>26</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F324" s="2">
         <v>47501</v>
@@ -20490,7 +20486,7 @@
         <v>29</v>
       </c>
       <c r="M324" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N324" s="2">
         <v>31</v>
@@ -20519,13 +20515,13 @@
         <v>3138</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F325" s="2">
         <v>47597</v>
@@ -20543,7 +20539,7 @@
         <v>29</v>
       </c>
       <c r="M325" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N325" s="2">
         <v>31</v>
@@ -20572,16 +20568,16 @@
         <v>3231</v>
       </c>
       <c r="C326" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F326" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F326" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="I326" s="2">
         <v>0</v>
@@ -20593,7 +20589,7 @@
         <v>60</v>
       </c>
       <c r="M326" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N326" s="2">
         <v>30</v>
@@ -20617,16 +20613,16 @@
         <v>20</v>
       </c>
       <c r="U326" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="V326" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="W326" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="X326" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="V326" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="W326" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="X326" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.25">
@@ -20637,7 +20633,7 @@
         <v>3231</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>26</v>
@@ -20658,7 +20654,7 @@
         <v>105</v>
       </c>
       <c r="M327" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N327" s="2">
         <v>30</v>
@@ -20685,10 +20681,10 @@
         <v>29</v>
       </c>
       <c r="V327" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W327" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="X327" s="2" t="s">
         <v>29</v>
@@ -20705,13 +20701,13 @@
         <v>3231</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F328" s="2">
         <v>47424</v>
@@ -20723,10 +20719,10 @@
         <v>0</v>
       </c>
       <c r="K328" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M328" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N328" s="2">
         <v>30</v>
@@ -20753,10 +20749,10 @@
         <v>29</v>
       </c>
       <c r="V328" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W328" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="X328" s="2" t="s">
         <v>29</v>
@@ -20773,13 +20769,13 @@
         <v>3231</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F329" s="2">
         <v>47834</v>
@@ -20794,7 +20790,7 @@
         <v>834</v>
       </c>
       <c r="M329" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N329" s="2">
         <v>30</v>
@@ -20821,10 +20817,10 @@
         <v>29</v>
       </c>
       <c r="V329" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W329" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="X329" s="2" t="s">
         <v>29</v>
@@ -20841,13 +20837,13 @@
         <v>3231</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F330" s="2">
         <v>46552</v>
@@ -20862,7 +20858,7 @@
         <v>552</v>
       </c>
       <c r="M330" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N330" s="2">
         <v>30</v>
@@ -20889,10 +20885,10 @@
         <v>29</v>
       </c>
       <c r="V330" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W330" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="X330" s="2" t="s">
         <v>29</v>
@@ -20909,13 +20905,13 @@
         <v>3231</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F331" s="2">
         <v>47841</v>
@@ -20930,7 +20926,7 @@
         <v>841</v>
       </c>
       <c r="M331" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N331" s="2">
         <v>30</v>
@@ -20957,10 +20953,10 @@
         <v>29</v>
       </c>
       <c r="V331" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W331" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="X331" s="2" t="s">
         <v>29</v>
@@ -20983,7 +20979,7 @@
         <v>26</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F332" s="2">
         <v>47842</v>
@@ -20998,7 +20994,7 @@
         <v>842</v>
       </c>
       <c r="M332" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N332" s="2">
         <v>30</v>
@@ -21025,10 +21021,10 @@
         <v>29</v>
       </c>
       <c r="V332" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W332" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="X332" s="2" t="s">
         <v>29</v>
@@ -21045,13 +21041,13 @@
         <v>3231</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F333" s="2">
         <v>47848</v>
@@ -21066,7 +21062,7 @@
         <v>438</v>
       </c>
       <c r="M333" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N333" s="2">
         <v>30</v>
@@ -21093,10 +21089,10 @@
         <v>29</v>
       </c>
       <c r="V333" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W333" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="X333" s="2" t="s">
         <v>29</v>
@@ -21113,13 +21109,13 @@
         <v>3231</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F334" s="2">
         <v>47850</v>
@@ -21134,7 +21130,7 @@
         <v>850</v>
       </c>
       <c r="M334" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N334" s="2">
         <v>30</v>
@@ -21161,10 +21157,10 @@
         <v>29</v>
       </c>
       <c r="V334" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W334" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="X334" s="2" t="s">
         <v>29</v>
@@ -21181,13 +21177,13 @@
         <v>3231</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F335" s="2">
         <v>47438</v>
@@ -21202,7 +21198,7 @@
         <v>438</v>
       </c>
       <c r="M335" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N335" s="2">
         <v>30</v>
@@ -21229,10 +21225,10 @@
         <v>29</v>
       </c>
       <c r="V335" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W335" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="X335" s="2" t="s">
         <v>29</v>
@@ -21249,13 +21245,13 @@
         <v>3231</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F336" s="2">
         <v>47872</v>
@@ -21270,7 +21266,7 @@
         <v>872</v>
       </c>
       <c r="M336" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N336" s="2">
         <v>30</v>
@@ -21297,10 +21293,10 @@
         <v>29</v>
       </c>
       <c r="V336" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W336" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="X336" s="2" t="s">
         <v>29</v>
@@ -21317,13 +21313,13 @@
         <v>3231</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F337" s="2">
         <v>47874</v>
@@ -21338,7 +21334,7 @@
         <v>874</v>
       </c>
       <c r="M337" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N337" s="2">
         <v>30</v>
@@ -21365,10 +21361,10 @@
         <v>29</v>
       </c>
       <c r="V337" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W337" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="X337" s="2" t="s">
         <v>29</v>
@@ -21385,13 +21381,13 @@
         <v>3231</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F338" s="2">
         <v>47879</v>
@@ -21406,7 +21402,7 @@
         <v>879</v>
       </c>
       <c r="M338" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N338" s="2">
         <v>30</v>
@@ -21433,10 +21429,10 @@
         <v>29</v>
       </c>
       <c r="V338" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W338" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="X338" s="2" t="s">
         <v>29</v>
@@ -21453,13 +21449,13 @@
         <v>3231</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F339" s="2">
         <v>47882</v>
@@ -21474,7 +21470,7 @@
         <v>882</v>
       </c>
       <c r="M339" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N339" s="2">
         <v>30</v>
@@ -21501,10 +21497,10 @@
         <v>29</v>
       </c>
       <c r="V339" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W339" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="X339" s="2" t="s">
         <v>29</v>
@@ -21521,16 +21517,16 @@
         <v>3231</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I340" s="2">
         <v>0</v>
@@ -21539,10 +21535,10 @@
         <v>0</v>
       </c>
       <c r="K340" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M340" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N340" s="2">
         <v>30</v>
@@ -21569,10 +21565,10 @@
         <v>29</v>
       </c>
       <c r="V340" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W340" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="X340" s="2" t="s">
         <v>29</v>
@@ -21589,13 +21585,13 @@
         <v>3231</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F341" s="2">
         <v>47850</v>
@@ -21610,7 +21606,7 @@
         <v>850</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N341" s="2">
         <v>30</v>
@@ -21637,10 +21633,10 @@
         <v>29</v>
       </c>
       <c r="V341" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W341" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="X341" s="2" t="s">
         <v>29</v>
@@ -21657,13 +21653,13 @@
         <v>3231</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F342" s="2">
         <v>47885</v>
@@ -21678,7 +21674,7 @@
         <v>855</v>
       </c>
       <c r="M342" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N342" s="2">
         <v>30</v>
@@ -21705,10 +21701,10 @@
         <v>29</v>
       </c>
       <c r="V342" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="W342" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="X342" s="2" t="s">
         <v>29</v>
@@ -21725,13 +21721,13 @@
         <v>4782</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F343" s="2">
         <v>29010</v>
@@ -21749,7 +21745,7 @@
         <v>29</v>
       </c>
       <c r="K343" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L343" s="2" t="s">
         <v>29</v>
@@ -21778,13 +21774,13 @@
         <v>4782</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F344" s="2">
         <v>29010</v>
@@ -21802,7 +21798,7 @@
         <v>29</v>
       </c>
       <c r="K344" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L344" s="2" t="s">
         <v>29</v>
@@ -21831,13 +21827,13 @@
         <v>4782</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F345" s="2">
         <v>29010</v>
@@ -21855,7 +21851,7 @@
         <v>29</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L345" s="2" t="s">
         <v>29</v>
@@ -21884,13 +21880,13 @@
         <v>4782</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F346" s="2">
         <v>29150</v>
@@ -21908,7 +21904,7 @@
         <v>29</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L346" s="2">
         <v>30</v>
@@ -21940,10 +21936,10 @@
         <v>42</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F347" s="2">
         <v>29080</v>
@@ -21961,7 +21957,7 @@
         <v>29</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L347" s="2" t="s">
         <v>29</v>
@@ -21973,7 +21969,7 @@
         <v>29</v>
       </c>
       <c r="O347" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P347" s="2" t="s">
         <v>29</v>
@@ -21990,13 +21986,13 @@
         <v>4782</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F348" s="2">
         <v>29161</v>
@@ -22014,7 +22010,7 @@
         <v>29</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L348" s="2" t="s">
         <v>29</v>
@@ -22043,13 +22039,13 @@
         <v>4782</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F349" s="2">
         <v>29154</v>
@@ -22067,7 +22063,7 @@
         <v>29</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L349" s="2">
         <v>30</v>
@@ -22096,13 +22092,13 @@
         <v>4782</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F350" s="2">
         <v>29505</v>
@@ -22120,7 +22116,7 @@
         <v>29</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L350" s="2" t="s">
         <v>29</v>
@@ -22149,13 +22145,13 @@
         <v>4782</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F351" s="2">
         <v>29530</v>
@@ -22173,7 +22169,7 @@
         <v>29</v>
       </c>
       <c r="K351" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L351" s="2" t="s">
         <v>29</v>
@@ -22202,13 +22198,13 @@
         <v>4782</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F352" s="2">
         <v>29040</v>
@@ -22226,7 +22222,7 @@
         <v>29</v>
       </c>
       <c r="K352" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L352" s="2">
         <v>30</v>
@@ -22255,16 +22251,16 @@
         <v>4782</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G353" s="2" t="s">
         <v>29</v>
@@ -22279,7 +22275,7 @@
         <v>29</v>
       </c>
       <c r="K353" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L353" s="2" t="s">
         <v>29</v>
@@ -22308,13 +22304,13 @@
         <v>4782</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F354" s="2">
         <v>29540</v>
@@ -22332,7 +22328,7 @@
         <v>29</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L354" s="2" t="s">
         <v>29</v>
@@ -22361,13 +22357,13 @@
         <v>4782</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F355" s="2">
         <v>29153</v>
@@ -22385,7 +22381,7 @@
         <v>29</v>
       </c>
       <c r="K355" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L355" s="2">
         <v>30</v>
@@ -22414,13 +22410,13 @@
         <v>4782</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F356" s="2">
         <v>29541</v>
@@ -22438,7 +22434,7 @@
         <v>29</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L356" s="2" t="s">
         <v>29</v>
@@ -22467,13 +22463,13 @@
         <v>4782</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F357" s="2">
         <v>29406</v>
@@ -22491,7 +22487,7 @@
         <v>29</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L357" s="2" t="s">
         <v>29</v>
@@ -22520,13 +22516,13 @@
         <v>4782</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F358" s="2">
         <v>29583</v>
@@ -22544,7 +22540,7 @@
         <v>29</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L358" s="2" t="s">
         <v>29</v>
@@ -22573,16 +22569,16 @@
         <v>4782</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G359" s="2">
         <v>5</v>
@@ -22597,7 +22593,7 @@
         <v>29</v>
       </c>
       <c r="K359" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L359" s="2">
         <v>30</v>
@@ -22626,13 +22622,13 @@
         <v>4782</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F360" s="2">
         <v>29540</v>
@@ -22650,7 +22646,7 @@
         <v>29</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L360" s="2" t="s">
         <v>29</v>
@@ -22679,13 +22675,13 @@
         <v>4782</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F361" s="2">
         <v>29128</v>
@@ -22703,7 +22699,7 @@
         <v>29</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L361" s="2">
         <v>30</v>
@@ -22732,16 +22728,16 @@
         <v>4782</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G362" s="2" t="s">
         <v>29</v>
@@ -22756,7 +22752,7 @@
         <v>29</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L362" s="2" t="s">
         <v>29</v>
@@ -22785,13 +22781,13 @@
         <v>4782</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F363" s="2">
         <v>29062</v>
@@ -22809,7 +22805,7 @@
         <v>29</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L363" s="2">
         <v>30</v>
@@ -22838,13 +22834,13 @@
         <v>4782</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F364" s="2">
         <v>29560</v>
@@ -22862,7 +22858,7 @@
         <v>29</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L364" s="2" t="s">
         <v>29</v>
@@ -22891,13 +22887,13 @@
         <v>4782</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F365" s="2">
         <v>29069</v>
@@ -22915,7 +22911,7 @@
         <v>29</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L365" s="2" t="s">
         <v>29</v>
@@ -22944,13 +22940,13 @@
         <v>4782</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F366" s="2">
         <v>29010</v>
@@ -22968,7 +22964,7 @@
         <v>29</v>
       </c>
       <c r="K366" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L366" s="2" t="s">
         <v>29</v>
@@ -22997,13 +22993,13 @@
         <v>4782</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F367" s="2">
         <v>29079</v>
@@ -23021,7 +23017,7 @@
         <v>29</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L367" s="2" t="s">
         <v>29</v>
@@ -23050,13 +23046,13 @@
         <v>4782</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F368" s="2">
         <v>29080</v>
@@ -23074,7 +23070,7 @@
         <v>29</v>
       </c>
       <c r="K368" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L368" s="2" t="s">
         <v>29</v>
@@ -23103,13 +23099,13 @@
         <v>4782</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F369" s="2">
         <v>29010</v>
@@ -23127,7 +23123,7 @@
         <v>29</v>
       </c>
       <c r="K369" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L369" s="2" t="s">
         <v>29</v>
@@ -23156,13 +23152,13 @@
         <v>4782</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F370" s="2">
         <v>29506</v>
@@ -23180,7 +23176,7 @@
         <v>29</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L370" s="2" t="s">
         <v>29</v>
@@ -23209,13 +23205,13 @@
         <v>4782</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F371" s="2">
         <v>29104</v>
@@ -23233,7 +23229,7 @@
         <v>29</v>
       </c>
       <c r="K371" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L371" s="2">
         <v>30</v>
@@ -23262,13 +23258,13 @@
         <v>4782</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F372" s="2">
         <v>29101</v>
@@ -23286,7 +23282,7 @@
         <v>29</v>
       </c>
       <c r="K372" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L372" s="2" t="s">
         <v>29</v>
@@ -23315,13 +23311,13 @@
         <v>4782</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F373" s="2">
         <v>29556</v>
@@ -23339,7 +23335,7 @@
         <v>29</v>
       </c>
       <c r="K373" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L373" s="2">
         <v>30</v>
@@ -23368,13 +23364,13 @@
         <v>4782</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F374" s="2">
         <v>29153</v>
@@ -23392,7 +23388,7 @@
         <v>29</v>
       </c>
       <c r="K374" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L374" s="2">
         <v>30</v>
@@ -23421,13 +23417,13 @@
         <v>4782</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F375" s="2">
         <v>29550</v>
@@ -23445,7 +23441,7 @@
         <v>29</v>
       </c>
       <c r="K375" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L375" s="2" t="s">
         <v>29</v>
@@ -23474,13 +23470,13 @@
         <v>4782</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F376" s="2">
         <v>29154</v>
@@ -23498,7 +23494,7 @@
         <v>29</v>
       </c>
       <c r="K376" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L376" s="2">
         <v>30</v>
@@ -23527,13 +23523,13 @@
         <v>4782</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F377" s="2">
         <v>29069</v>
@@ -23551,7 +23547,7 @@
         <v>29</v>
       </c>
       <c r="K377" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L377" s="2" t="s">
         <v>29</v>
@@ -23580,13 +23576,13 @@
         <v>4782</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F378" s="2">
         <v>29114</v>
@@ -23604,7 +23600,7 @@
         <v>29</v>
       </c>
       <c r="K378" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L378" s="2" t="s">
         <v>29</v>
@@ -23633,13 +23629,13 @@
         <v>4782</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F379" s="2">
         <v>29150</v>
@@ -23657,7 +23653,7 @@
         <v>29</v>
       </c>
       <c r="K379" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L379" s="2" t="s">
         <v>29</v>
@@ -23686,13 +23682,13 @@
         <v>4782</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F380" s="2">
         <v>29125</v>
@@ -23710,7 +23706,7 @@
         <v>29</v>
       </c>
       <c r="K380" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L380" s="2">
         <v>30</v>
@@ -23739,13 +23735,13 @@
         <v>4782</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F381" s="2">
         <v>29506</v>
@@ -23763,7 +23759,7 @@
         <v>29</v>
       </c>
       <c r="K381" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L381" s="2" t="s">
         <v>29</v>
@@ -23792,13 +23788,13 @@
         <v>4782</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F382" s="2">
         <v>29128</v>
@@ -23816,7 +23812,7 @@
         <v>29</v>
       </c>
       <c r="K382" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L382" s="2">
         <v>30</v>
@@ -23845,13 +23841,13 @@
         <v>4782</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F383" s="2">
         <v>29591</v>
@@ -23869,7 +23865,7 @@
         <v>29</v>
       </c>
       <c r="K383" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L383" s="2" t="s">
         <v>29</v>
@@ -23898,13 +23894,13 @@
         <v>4782</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F384" s="2">
         <v>29080</v>
@@ -23922,7 +23918,7 @@
         <v>29</v>
       </c>
       <c r="K384" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L384" s="2" t="s">
         <v>29</v>
@@ -23951,13 +23947,13 @@
         <v>4782</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F385" s="2">
         <v>29593</v>
@@ -23975,7 +23971,7 @@
         <v>29</v>
       </c>
       <c r="K385" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L385" s="2" t="s">
         <v>29</v>
@@ -24004,13 +24000,13 @@
         <v>4782</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F386" s="2">
         <v>29150</v>
@@ -24028,7 +24024,7 @@
         <v>29</v>
       </c>
       <c r="K386" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L386" s="2">
         <v>30</v>
@@ -24057,13 +24053,13 @@
         <v>4782</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F387" s="2">
         <v>29104</v>
@@ -24081,7 +24077,7 @@
         <v>29</v>
       </c>
       <c r="K387" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L387" s="2">
         <v>30</v>
@@ -24110,13 +24106,13 @@
         <v>4782</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F388" s="2">
         <v>29150</v>
@@ -24134,7 +24130,7 @@
         <v>29</v>
       </c>
       <c r="K388" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L388" s="2">
         <v>30</v>
@@ -24163,16 +24159,16 @@
         <v>4782</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G389" s="2">
         <v>5</v>
@@ -24187,7 +24183,7 @@
         <v>29</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L389" s="2">
         <v>30</v>
@@ -24216,13 +24212,13 @@
         <v>4782</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F390" s="2">
         <v>29161</v>
@@ -24240,7 +24236,7 @@
         <v>29</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L390" s="2" t="s">
         <v>29</v>
@@ -24269,13 +24265,13 @@
         <v>4782</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F391" s="2">
         <v>29162</v>
@@ -24293,7 +24289,7 @@
         <v>29</v>
       </c>
       <c r="K391" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L391" s="2" t="s">
         <v>29</v>
@@ -24322,13 +24318,13 @@
         <v>4782</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F392" s="2">
         <v>29378</v>
@@ -24346,7 +24342,7 @@
         <v>29</v>
       </c>
       <c r="K392" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L392" s="2" t="s">
         <v>29</v>
@@ -24375,13 +24371,13 @@
         <v>4782</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F393" s="2">
         <v>29168</v>
@@ -24399,7 +24395,7 @@
         <v>29</v>
       </c>
       <c r="K393" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L393" s="2">
         <v>30</v>
@@ -24428,13 +24424,13 @@
         <v>4782</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F394" s="2">
         <v>29010</v>
@@ -24452,7 +24448,7 @@
         <v>29</v>
       </c>
       <c r="K394" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L394" s="2">
         <v>30</v>
@@ -24481,13 +24477,13 @@
         <v>4782</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F395" s="2">
         <v>29040</v>
@@ -24505,7 +24501,7 @@
         <v>29</v>
       </c>
       <c r="K395" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L395" s="2">
         <v>30</v>
@@ -24534,13 +24530,13 @@
         <v>3803</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F396" s="2">
         <v>20105</v>
@@ -24558,7 +24554,7 @@
         <v>29</v>
       </c>
       <c r="K396" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L396" s="2">
         <v>30</v>
@@ -24567,7 +24563,7 @@
         <v>31</v>
       </c>
       <c r="N396" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O396" s="2">
         <v>10</v>
@@ -24587,31 +24583,31 @@
         <v>3803</v>
       </c>
       <c r="C397" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G397" s="2">
+        <v>0</v>
+      </c>
+      <c r="H397" s="2">
+        <v>0</v>
+      </c>
+      <c r="I397" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D397" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E397" s="2" t="s">
+      <c r="J397" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K397" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F397" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="G397" s="2">
-        <v>0</v>
-      </c>
-      <c r="H397" s="2">
-        <v>0</v>
-      </c>
-      <c r="I397" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="J397" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K397" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L397" s="2">
         <v>30</v>
@@ -24620,7 +24616,7 @@
         <v>31</v>
       </c>
       <c r="N397" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O397" s="2">
         <v>10</v>
@@ -24640,13 +24636,13 @@
         <v>3803</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F398" s="2">
         <v>22003</v>
@@ -24664,7 +24660,7 @@
         <v>29</v>
       </c>
       <c r="K398" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L398" s="2">
         <v>30</v>
@@ -24673,7 +24669,7 @@
         <v>31</v>
       </c>
       <c r="N398" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O398" s="2">
         <v>10</v>
@@ -24693,13 +24689,13 @@
         <v>3803</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F399" s="2">
         <v>20107</v>
@@ -24717,7 +24713,7 @@
         <v>29</v>
       </c>
       <c r="K399" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L399" s="2">
         <v>30</v>
@@ -24726,7 +24722,7 @@
         <v>31</v>
       </c>
       <c r="N399" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O399" s="2">
         <v>10</v>
@@ -24749,28 +24745,28 @@
         <v>199</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E400" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G400" s="2">
+        <v>0</v>
+      </c>
+      <c r="H400" s="2">
+        <v>0</v>
+      </c>
+      <c r="I400" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J400" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K400" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F400" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="G400" s="2">
-        <v>0</v>
-      </c>
-      <c r="H400" s="2">
-        <v>0</v>
-      </c>
-      <c r="I400" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="J400" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K400" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L400" s="2">
         <v>30</v>
@@ -24779,7 +24775,7 @@
         <v>31</v>
       </c>
       <c r="N400" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O400" s="2">
         <v>10</v>
@@ -24799,16 +24795,16 @@
         <v>3803</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G401" s="2">
         <v>0</v>
@@ -24817,13 +24813,13 @@
         <v>0</v>
       </c>
       <c r="I401" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J401" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K401" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L401" s="2">
         <v>30</v>
@@ -24832,7 +24828,7 @@
         <v>31</v>
       </c>
       <c r="N401" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O401" s="2">
         <v>10</v>
@@ -24852,13 +24848,13 @@
         <v>3803</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F402" s="2">
         <v>20136</v>
@@ -24876,7 +24872,7 @@
         <v>29</v>
       </c>
       <c r="K402" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L402" s="2">
         <v>30</v>
@@ -24905,13 +24901,13 @@
         <v>3803</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F403" s="2">
         <v>20137</v>
@@ -24929,7 +24925,7 @@
         <v>29</v>
       </c>
       <c r="K403" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L403" s="2">
         <v>30</v>
@@ -24958,13 +24954,13 @@
         <v>3803</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F404" s="2">
         <v>22015</v>
@@ -24982,7 +24978,7 @@
         <v>29</v>
       </c>
       <c r="K404" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L404" s="2">
         <v>30</v>
@@ -24991,7 +24987,7 @@
         <v>31</v>
       </c>
       <c r="N404" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O404" s="2">
         <v>10</v>
@@ -25011,13 +25007,13 @@
         <v>3803</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F405" s="2">
         <v>20143</v>
@@ -25035,7 +25031,7 @@
         <v>29</v>
       </c>
       <c r="K405" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L405" s="2">
         <v>30</v>
@@ -25064,31 +25060,31 @@
         <v>3803</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E406" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G406" s="2">
+        <v>0</v>
+      </c>
+      <c r="H406" s="2">
+        <v>0</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="J406" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K406" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G406" s="2">
-        <v>0</v>
-      </c>
-      <c r="H406" s="2">
-        <v>0</v>
-      </c>
-      <c r="I406" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="J406" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K406" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L406" s="2">
         <v>30</v>
@@ -25097,7 +25093,7 @@
         <v>31</v>
       </c>
       <c r="N406" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O406" s="2">
         <v>10</v>
@@ -25117,16 +25113,16 @@
         <v>3803</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G407" s="2">
         <v>0</v>
@@ -25141,7 +25137,7 @@
         <v>29</v>
       </c>
       <c r="K407" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L407" s="2">
         <v>30</v>
@@ -25150,7 +25146,7 @@
         <v>31</v>
       </c>
       <c r="N407" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O407" s="2">
         <v>10</v>
@@ -25170,31 +25166,31 @@
         <v>3803</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E408" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G408" s="2">
+        <v>0</v>
+      </c>
+      <c r="H408" s="2">
+        <v>0</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J408" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K408" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F408" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="G408" s="2">
-        <v>0</v>
-      </c>
-      <c r="H408" s="2">
-        <v>0</v>
-      </c>
-      <c r="I408" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="J408" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K408" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L408" s="2">
         <v>30</v>
@@ -25203,7 +25199,7 @@
         <v>31</v>
       </c>
       <c r="N408" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O408" s="2">
         <v>10</v>
@@ -25223,13 +25219,13 @@
         <v>3803</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F409" s="2">
         <v>22193</v>
@@ -25247,7 +25243,7 @@
         <v>29</v>
       </c>
       <c r="K409" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L409" s="2">
         <v>30</v>
@@ -25276,16 +25272,16 @@
         <v>3803</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G410" s="2">
         <v>0</v>
@@ -25294,13 +25290,13 @@
         <v>0</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J410" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K410" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L410" s="2">
         <v>30</v>
@@ -25329,13 +25325,13 @@
         <v>3803</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F411" s="2">
         <v>22027</v>
@@ -25353,7 +25349,7 @@
         <v>29</v>
       </c>
       <c r="K411" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L411" s="2">
         <v>30</v>
@@ -25362,7 +25358,7 @@
         <v>31</v>
       </c>
       <c r="N411" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O411" s="2">
         <v>10</v>
@@ -25382,31 +25378,31 @@
         <v>3803</v>
       </c>
       <c r="C412" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G412" s="2">
+        <v>0</v>
+      </c>
+      <c r="H412" s="2">
+        <v>0</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J412" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K412" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="F412" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="G412" s="2">
-        <v>0</v>
-      </c>
-      <c r="H412" s="2">
-        <v>0</v>
-      </c>
-      <c r="I412" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="J412" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K412" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L412" s="2">
         <v>30</v>
@@ -25415,7 +25411,7 @@
         <v>31</v>
       </c>
       <c r="N412" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O412" s="2">
         <v>10</v>
@@ -25435,13 +25431,13 @@
         <v>3803</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F413" s="2">
         <v>22039</v>
@@ -25459,7 +25455,7 @@
         <v>29</v>
       </c>
       <c r="K413" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L413" s="2">
         <v>30</v>
@@ -25468,7 +25464,7 @@
         <v>31</v>
       </c>
       <c r="N413" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O413" s="2">
         <v>10</v>
@@ -25488,31 +25484,31 @@
         <v>3803</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E414" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G414" s="2">
+        <v>0</v>
+      </c>
+      <c r="H414" s="2">
+        <v>0</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J414" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K414" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F414" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="G414" s="2">
-        <v>0</v>
-      </c>
-      <c r="H414" s="2">
-        <v>0</v>
-      </c>
-      <c r="I414" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="J414" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K414" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L414" s="2">
         <v>30</v>
@@ -25521,7 +25517,7 @@
         <v>31</v>
       </c>
       <c r="N414" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O414" s="2">
         <v>10</v>
@@ -25541,13 +25537,13 @@
         <v>3803</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F415" s="2">
         <v>22060</v>
@@ -25565,7 +25561,7 @@
         <v>29</v>
       </c>
       <c r="K415" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L415" s="2">
         <v>30</v>
@@ -25574,7 +25570,7 @@
         <v>31</v>
       </c>
       <c r="N415" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O415" s="2">
         <v>10</v>
@@ -25594,13 +25590,13 @@
         <v>3803</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F416" s="2">
         <v>20155</v>
@@ -25618,7 +25614,7 @@
         <v>29</v>
       </c>
       <c r="K416" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L416" s="2">
         <v>30</v>
@@ -25647,13 +25643,13 @@
         <v>3803</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F417" s="2">
         <v>22066</v>
@@ -25671,7 +25667,7 @@
         <v>29</v>
       </c>
       <c r="K417" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L417" s="2">
         <v>30</v>
@@ -25680,7 +25676,7 @@
         <v>31</v>
       </c>
       <c r="N417" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O417" s="2">
         <v>10</v>
@@ -25703,10 +25699,10 @@
         <v>35</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F418" s="2">
         <v>20158</v>
@@ -25724,7 +25720,7 @@
         <v>29</v>
       </c>
       <c r="K418" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L418" s="2">
         <v>30</v>
@@ -25733,7 +25729,7 @@
         <v>31</v>
       </c>
       <c r="N418" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O418" s="2">
         <v>10</v>
@@ -25753,16 +25749,16 @@
         <v>3803</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G419" s="2">
         <v>0</v>
@@ -25771,13 +25767,13 @@
         <v>0</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J419" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K419" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L419" s="2">
         <v>30</v>
@@ -25806,31 +25802,31 @@
         <v>3803</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E420" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G420" s="2">
+        <v>0</v>
+      </c>
+      <c r="H420" s="2">
+        <v>0</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="J420" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K420" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F420" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G420" s="2">
-        <v>0</v>
-      </c>
-      <c r="H420" s="2">
-        <v>0</v>
-      </c>
-      <c r="I420" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="J420" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K420" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L420" s="2">
         <v>30</v>
@@ -25839,7 +25835,7 @@
         <v>31</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O420" s="2">
         <v>10</v>
@@ -25859,16 +25855,16 @@
         <v>3803</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G421" s="2">
         <v>0</v>
@@ -25877,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K421" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L421" s="2">
         <v>30</v>
@@ -25892,7 +25888,7 @@
         <v>31</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O421" s="2">
         <v>10</v>
@@ -25912,31 +25908,31 @@
         <v>3803</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E422" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="G422" s="2">
+        <v>0</v>
+      </c>
+      <c r="H422" s="2">
+        <v>0</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="J422" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K422" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F422" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="G422" s="2">
-        <v>0</v>
-      </c>
-      <c r="H422" s="2">
-        <v>0</v>
-      </c>
-      <c r="I422" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="J422" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K422" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L422" s="2">
         <v>30</v>
@@ -25945,7 +25941,7 @@
         <v>31</v>
       </c>
       <c r="N422" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O422" s="2">
         <v>10</v>
@@ -25965,16 +25961,16 @@
         <v>3803</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G423" s="2">
         <v>0</v>
@@ -25983,13 +25979,13 @@
         <v>0</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="J423" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K423" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L423" s="2">
         <v>30</v>
@@ -26018,16 +26014,16 @@
         <v>3803</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G424" s="2">
         <v>0</v>
@@ -26036,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J424" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K424" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L424" s="2">
         <v>30</v>
@@ -26071,31 +26067,31 @@
         <v>3803</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E425" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G425" s="2">
+        <v>0</v>
+      </c>
+      <c r="H425" s="2">
+        <v>0</v>
+      </c>
+      <c r="I425" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J425" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K425" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F425" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G425" s="2">
-        <v>0</v>
-      </c>
-      <c r="H425" s="2">
-        <v>0</v>
-      </c>
-      <c r="I425" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="J425" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K425" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L425" s="2">
         <v>30</v>
@@ -26104,7 +26100,7 @@
         <v>31</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O425" s="2">
         <v>10</v>
@@ -26124,13 +26120,13 @@
         <v>3803</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F426" s="2">
         <v>22116</v>
@@ -26148,7 +26144,7 @@
         <v>29</v>
       </c>
       <c r="K426" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L426" s="2">
         <v>30</v>
@@ -26157,7 +26153,7 @@
         <v>31</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O426" s="2">
         <v>10</v>
@@ -26177,13 +26173,13 @@
         <v>3803</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F427" s="2">
         <v>22121</v>
@@ -26201,7 +26197,7 @@
         <v>29</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L427" s="2">
         <v>30</v>
@@ -26210,7 +26206,7 @@
         <v>31</v>
       </c>
       <c r="N427" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O427" s="2">
         <v>10</v>
@@ -26230,13 +26226,13 @@
         <v>3803</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F428" s="2">
         <v>22122</v>
@@ -26254,7 +26250,7 @@
         <v>29</v>
       </c>
       <c r="K428" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L428" s="2">
         <v>30</v>
@@ -26263,7 +26259,7 @@
         <v>31</v>
       </c>
       <c r="N428" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O428" s="2">
         <v>10</v>
@@ -26283,16 +26279,16 @@
         <v>3803</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G429" s="2">
         <v>0</v>
@@ -26301,13 +26297,13 @@
         <v>0</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="J429" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K429" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L429" s="2">
         <v>30</v>
@@ -26336,13 +26332,13 @@
         <v>3803</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F430" s="2">
         <v>22124</v>
@@ -26360,7 +26356,7 @@
         <v>29</v>
       </c>
       <c r="K430" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L430" s="2">
         <v>30</v>
@@ -26369,7 +26365,7 @@
         <v>31</v>
       </c>
       <c r="N430" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O430" s="2">
         <v>10</v>
@@ -26389,13 +26385,13 @@
         <v>3803</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F431" s="2">
         <v>22125</v>
@@ -26413,7 +26409,7 @@
         <v>29</v>
       </c>
       <c r="K431" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L431" s="2">
         <v>30</v>
@@ -26442,13 +26438,13 @@
         <v>3803</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F432" s="2">
         <v>20129</v>
@@ -26466,7 +26462,7 @@
         <v>29</v>
       </c>
       <c r="K432" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L432" s="2">
         <v>30</v>
@@ -26475,7 +26471,7 @@
         <v>31</v>
       </c>
       <c r="N432" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O432" s="2">
         <v>10</v>
@@ -26495,16 +26491,16 @@
         <v>3803</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G433" s="2">
         <v>0</v>
@@ -26513,13 +26509,13 @@
         <v>0</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J433" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K433" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L433" s="2">
         <v>30</v>
@@ -26528,7 +26524,7 @@
         <v>31</v>
       </c>
       <c r="N433" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O433" s="2">
         <v>10</v>
@@ -26548,13 +26544,13 @@
         <v>3803</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F434" s="2">
         <v>22134</v>
@@ -26572,7 +26568,7 @@
         <v>29</v>
       </c>
       <c r="K434" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L434" s="2">
         <v>30</v>
@@ -26601,16 +26597,16 @@
         <v>3803</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G435" s="2">
         <v>0</v>
@@ -26625,7 +26621,7 @@
         <v>29</v>
       </c>
       <c r="K435" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L435" s="2">
         <v>30</v>
@@ -26634,7 +26630,7 @@
         <v>31</v>
       </c>
       <c r="N435" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O435" s="2">
         <v>10</v>
@@ -26654,13 +26650,13 @@
         <v>3803</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F436" s="2">
         <v>20141</v>
@@ -26678,7 +26674,7 @@
         <v>29</v>
       </c>
       <c r="K436" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L436" s="2">
         <v>30</v>
@@ -26687,7 +26683,7 @@
         <v>31</v>
       </c>
       <c r="N436" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O436" s="2">
         <v>10</v>
@@ -26707,13 +26703,13 @@
         <v>3803</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F437" s="2">
         <v>20152</v>
@@ -26731,7 +26727,7 @@
         <v>29</v>
       </c>
       <c r="K437" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L437" s="2">
         <v>30</v>
@@ -26740,7 +26736,7 @@
         <v>31</v>
       </c>
       <c r="N437" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O437" s="2">
         <v>10</v>
@@ -26760,31 +26756,31 @@
         <v>3803</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E438" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G438" s="2">
+        <v>0</v>
+      </c>
+      <c r="H438" s="2">
+        <v>0</v>
+      </c>
+      <c r="I438" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="J438" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K438" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F438" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="G438" s="2">
-        <v>0</v>
-      </c>
-      <c r="H438" s="2">
-        <v>0</v>
-      </c>
-      <c r="I438" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="J438" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K438" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L438" s="2">
         <v>30</v>
@@ -26793,7 +26789,7 @@
         <v>31</v>
       </c>
       <c r="N438" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O438" s="2">
         <v>10</v>
@@ -26813,13 +26809,13 @@
         <v>3803</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F439" s="2">
         <v>22554</v>
@@ -26837,7 +26833,7 @@
         <v>29</v>
       </c>
       <c r="K439" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L439" s="2">
         <v>30</v>
@@ -26863,16 +26859,16 @@
         <v>3803</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G440" s="2">
         <v>0</v>
@@ -26881,13 +26877,13 @@
         <v>0</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J440" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K440" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L440" s="2">
         <v>30</v>
@@ -26896,7 +26892,7 @@
         <v>31</v>
       </c>
       <c r="N440" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O440" s="2">
         <v>10</v>
@@ -26916,13 +26912,13 @@
         <v>3803</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F441" s="2">
         <v>22172</v>
@@ -26940,7 +26936,7 @@
         <v>29</v>
       </c>
       <c r="K441" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L441" s="2">
         <v>30</v>
@@ -26969,31 +26965,31 @@
         <v>3803</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E442" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G442" s="2">
+        <v>0</v>
+      </c>
+      <c r="H442" s="2">
+        <v>0</v>
+      </c>
+      <c r="I442" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="J442" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K442" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F442" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="G442" s="2">
-        <v>0</v>
-      </c>
-      <c r="H442" s="2">
-        <v>0</v>
-      </c>
-      <c r="I442" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="J442" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K442" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="L442" s="2">
         <v>30</v>
@@ -27002,7 +26998,7 @@
         <v>31</v>
       </c>
       <c r="N442" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O442" s="2">
         <v>10</v>
@@ -27022,13 +27018,13 @@
         <v>3803</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F443" s="2">
         <v>20186</v>
@@ -27046,7 +27042,7 @@
         <v>29</v>
       </c>
       <c r="K443" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L443" s="2" t="s">
         <v>29</v>
@@ -27072,13 +27068,13 @@
         <v>3803</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F444" s="2">
         <v>20197</v>
@@ -27096,7 +27092,7 @@
         <v>29</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L444" s="2">
         <v>30</v>
@@ -27105,7 +27101,7 @@
         <v>31</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O444" s="2">
         <v>10</v>
@@ -27125,16 +27121,16 @@
         <v>3803</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G445" s="2">
         <v>0</v>
@@ -27143,13 +27139,13 @@
         <v>0</v>
       </c>
       <c r="I445" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J445" s="2" t="s">
         <v>29</v>
       </c>
       <c r="K445" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L445" s="2">
         <v>30</v>
@@ -27178,16 +27174,16 @@
         <v>3105</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G446" s="2">
         <v>0</v>
@@ -27199,7 +27195,7 @@
         <v>102</v>
       </c>
       <c r="J446" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K446" s="2">
         <v>30</v>
@@ -27228,13 +27224,13 @@
         <v>3105</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F447" s="2">
         <v>29910</v>
@@ -27249,7 +27245,7 @@
         <v>100</v>
       </c>
       <c r="J447" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K447" s="2" t="s">
         <v>29</v>
@@ -27278,13 +27274,13 @@
         <v>3105</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F448" s="2">
         <v>29915</v>
@@ -27299,25 +27295,25 @@
         <v>140</v>
       </c>
       <c r="J448" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="K448" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L448" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M448" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N448" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="K448" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L448" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M448" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N448" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="O448" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="P448" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="449" spans="1:16" x14ac:dyDescent="0.25">
@@ -27328,13 +27324,13 @@
         <v>3105</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F449" s="2">
         <v>29916</v>
@@ -27349,7 +27345,7 @@
         <v>145</v>
       </c>
       <c r="J449" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K449" s="2" t="s">
         <v>29</v>
@@ -27378,13 +27374,13 @@
         <v>3105</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F450" s="2">
         <v>29918</v>
@@ -27399,7 +27395,7 @@
         <v>150</v>
       </c>
       <c r="J450" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K450" s="2" t="s">
         <v>29</v>
@@ -27428,13 +27424,13 @@
         <v>3105</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F451" s="2">
         <v>29827</v>
@@ -27449,7 +27445,7 @@
         <v>29</v>
       </c>
       <c r="J451" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K451" s="2" t="s">
         <v>29</v>
@@ -27478,13 +27474,13 @@
         <v>3105</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F452" s="2">
         <v>29920</v>
@@ -27499,7 +27495,7 @@
         <v>155</v>
       </c>
       <c r="J452" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K452" s="2" t="s">
         <v>29</v>
@@ -27528,13 +27524,13 @@
         <v>3105</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F453" s="2">
         <v>29924</v>
@@ -27549,7 +27545,7 @@
         <v>110</v>
       </c>
       <c r="J453" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K453" s="2">
         <v>30</v>
@@ -27578,13 +27574,13 @@
         <v>3105</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F454" s="2">
         <v>29927</v>
@@ -27599,7 +27595,7 @@
         <v>115</v>
       </c>
       <c r="J454" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K454" s="2" t="s">
         <v>29</v>
@@ -27628,16 +27624,16 @@
         <v>3105</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G455" s="2">
         <v>0</v>
@@ -27649,7 +27645,7 @@
         <v>120</v>
       </c>
       <c r="J455" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K455" s="2" t="s">
         <v>29</v>
@@ -27678,13 +27674,13 @@
         <v>3105</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F456" s="2">
         <v>29907</v>
@@ -27699,7 +27695,7 @@
         <v>125</v>
       </c>
       <c r="J456" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K456" s="2">
         <v>30</v>
@@ -27728,13 +27724,13 @@
         <v>3105</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F457" s="2">
         <v>29927</v>
@@ -27749,7 +27745,7 @@
         <v>160</v>
       </c>
       <c r="J457" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K457" s="2" t="s">
         <v>29</v>
@@ -27778,13 +27774,13 @@
         <v>3105</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F458" s="2">
         <v>29932</v>
@@ -27799,7 +27795,7 @@
         <v>165</v>
       </c>
       <c r="J458" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K458" s="2" t="s">
         <v>29</v>
@@ -27828,13 +27824,13 @@
         <v>3105</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F459" s="2">
         <v>29909</v>
@@ -27849,7 +27845,7 @@
         <v>170</v>
       </c>
       <c r="J459" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K459" s="2" t="s">
         <v>29</v>
@@ -27878,13 +27874,13 @@
         <v>3105</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F460" s="2">
         <v>29934</v>
@@ -27899,7 +27895,7 @@
         <v>178</v>
       </c>
       <c r="J460" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K460" s="2" t="s">
         <v>29</v>
@@ -27928,13 +27924,13 @@
         <v>3105</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F461" s="2">
         <v>29935</v>
@@ -27949,7 +27945,7 @@
         <v>175</v>
       </c>
       <c r="J461" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K461" s="2" t="s">
         <v>29</v>
@@ -27978,13 +27974,13 @@
         <v>3105</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F462" s="2">
         <v>29936</v>
@@ -27999,7 +27995,7 @@
         <v>180</v>
       </c>
       <c r="J462" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K462" s="2" t="s">
         <v>29</v>
@@ -28028,13 +28024,13 @@
         <v>3105</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F463" s="2">
         <v>29940</v>
@@ -28049,7 +28045,7 @@
         <v>185</v>
       </c>
       <c r="J463" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K463" s="2" t="s">
         <v>29</v>
@@ -28078,13 +28074,13 @@
         <v>3105</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F464" s="2">
         <v>29941</v>
@@ -28099,7 +28095,7 @@
         <v>133</v>
       </c>
       <c r="J464" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K464" s="2" t="s">
         <v>29</v>
@@ -28128,13 +28124,13 @@
         <v>3105</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F465" s="2">
         <v>29920</v>
@@ -28149,7 +28145,7 @@
         <v>130</v>
       </c>
       <c r="J465" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K465" s="2" t="s">
         <v>29</v>
@@ -28178,13 +28174,13 @@
         <v>3105</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F466" s="2">
         <v>29943</v>
@@ -28199,7 +28195,7 @@
         <v>190</v>
       </c>
       <c r="J466" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K466" s="2" t="s">
         <v>29</v>
@@ -28228,13 +28224,13 @@
         <v>3105</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F467" s="2">
         <v>29944</v>
@@ -28249,7 +28245,7 @@
         <v>195</v>
       </c>
       <c r="J467" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K467" s="2" t="s">
         <v>29</v>
@@ -28278,13 +28274,13 @@
         <v>3105</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F468" s="2">
         <v>29945</v>
@@ -28299,7 +28295,7 @@
         <v>135</v>
       </c>
       <c r="J468" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K468" s="2">
         <v>30</v>

--- a/Resources/dataentry.xlsx
+++ b/Resources/dataentry.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="255" yWindow="360" windowWidth="27795" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="dataentry" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3803" uniqueCount="705">
   <si>
     <t>DIV</t>
   </si>
@@ -2095,6 +2095,114 @@
   </si>
   <si>
     <t>NC</t>
+  </si>
+  <si>
+    <t>Commercial Organics</t>
+  </si>
+  <si>
+    <t>FREMONT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA</t>
+  </si>
+  <si>
+    <t>ALAMEDA</t>
+  </si>
+  <si>
+    <t>94536, 94537,94538,94539,94555,94560, 94587</t>
+  </si>
+  <si>
+    <t>0000 - All LOB's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resi -999
+FL, CA, LU - Solid Waste: 5
+FR - Recycle: 18
+FR - Organics: 15
+RC - Commercial Recycle: 2
+FR/RC - Multiple Family Dumpster - Recycle: 17
+Dumpster - Solid Waste: 11
+Dumpster - Recycle: 63
+Dumpster - C&amp;D - 10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed C&amp;D - No concrete: BL CD
+MSW - BL 01
+FUSD MSW - NL 13
+FUSD Recycle - NR 12
+FUSED C&amp;D - NR 15
+Concrete - NL 02
+Dirt - NL 03
+Asphalt - NL 04
+Brick or Sand - NL 06
+Yard clippings, shrubbery - BL 03
+Clean wood, pallets, cardboard, paper - BL 02
+Organics (food waste) - NR 10
+</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>0-ALL RATES</t>
+  </si>
+  <si>
+    <t>NEWARK</t>
+  </si>
+  <si>
+    <t>FL, CA - Solid Waste: 50
+FR/RC - Recycle: 57 
+FR/RC - Recycle Multiple Family Dumpster: 62
+Dumpster - Solid Waste: 54
+Dumpster Recycle: 55
+RC - Recycle: 57
+Dumpster - C&amp;D: 58
+Dumpster - Green Waste: 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed construction no concrete: NL 19
+C&amp;D Remodel/Tenant Improvements: NL 22
+C&amp;D New Construction - NL 23
+C&amp;D Solid Waste - BL 17
+Solid Waste - BL 16
+Concrete - NL 02
+Dirt - NL 03
+Asphalt - NL 04
+Brick or Sand - NL 06
+Yard clippings, shrubbery - NR 05
+Clean wood, pallets - NR 07
+Cardboard - NR 08
+Paper - NR 09
+Organics (food waste) - NR 10
+</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>UNION CITY</t>
+  </si>
+  <si>
+    <t>FL, CA, LU - Solid Waste: 27
+FR - Recycle: 43
+FR - Organics: 34
+Dumpster - Solid Waste: 40
+Dumpster - Recycle: 38
+Dumpster - C&amp;D: 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed construction no concrete - NL 17
+Mixed Solid Waste - B 11
+Concrete - NL 02
+Dirt - NL 03
+Asphalt - NL 04
+Brick or Sand - NL 06
+Yard clippings, shrubbery, organics (food waste)  - NR 05
+Clean wood, pallets - NR 07
+Cardboard - NR 08
+Paper - NR 09
+</t>
   </si>
 </sst>
 </file>
@@ -2632,7 +2740,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2726,40 +2837,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Y468" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:Y468"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Z471" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:Z471"/>
   <sortState ref="A2:Y468">
     <sortCondition ref="A2:A468"/>
     <sortCondition ref="B2:B468"/>
     <sortCondition ref="D2:D468"/>
     <sortCondition ref="C2:C468"/>
   </sortState>
-  <tableColumns count="25">
-    <tableColumn id="1" name="DIV" dataDxfId="24"/>
-    <tableColumn id="2" name="Lawson" dataDxfId="23"/>
-    <tableColumn id="3" name="City" dataDxfId="22"/>
-    <tableColumn id="4" name="State" dataDxfId="21"/>
-    <tableColumn id="5" name="County" dataDxfId="20"/>
-    <tableColumn id="6" name="Zip Code" dataDxfId="19"/>
-    <tableColumn id="7" name="County Tax Code" dataDxfId="18"/>
-    <tableColumn id="8" name="Tax Rate %" dataDxfId="17"/>
-    <tableColumn id="9" name="Resi Tax Code" dataDxfId="16"/>
-    <tableColumn id="10" name="IND Tax Code" dataDxfId="15"/>
-    <tableColumn id="11" name="TERR Code" dataDxfId="14"/>
-    <tableColumn id="12" name="Other Code" dataDxfId="13"/>
-    <tableColumn id="13" name="Disposal Code" dataDxfId="12"/>
-    <tableColumn id="14" name="Residential" dataDxfId="11"/>
-    <tableColumn id="15" name="Residential_x000d_ Recycling" dataDxfId="10"/>
-    <tableColumn id="16" name="Yard Waste" dataDxfId="9"/>
-    <tableColumn id="17" name="Commercial" dataDxfId="8"/>
-    <tableColumn id="18" name="Commercial_x000d_ Recycling" dataDxfId="7"/>
-    <tableColumn id="19" name="Industrial" dataDxfId="6"/>
-    <tableColumn id="20" name="Industrial Recycling" dataDxfId="5"/>
-    <tableColumn id="21" name="Acquisition Code" dataDxfId="4"/>
-    <tableColumn id="22" name="Admin Fee" dataDxfId="3"/>
-    <tableColumn id="23" name="Rate Tax App Code" dataDxfId="2"/>
-    <tableColumn id="24" name="Other Code - Business Center" dataDxfId="1"/>
-    <tableColumn id="25" name="Notes" dataDxfId="0"/>
+  <tableColumns count="26">
+    <tableColumn id="1" name="DIV" dataDxfId="25"/>
+    <tableColumn id="2" name="Lawson" dataDxfId="24"/>
+    <tableColumn id="3" name="City" dataDxfId="23"/>
+    <tableColumn id="4" name="State" dataDxfId="22"/>
+    <tableColumn id="5" name="County" dataDxfId="21"/>
+    <tableColumn id="6" name="Zip Code" dataDxfId="20"/>
+    <tableColumn id="7" name="County Tax Code" dataDxfId="19"/>
+    <tableColumn id="8" name="Tax Rate %" dataDxfId="18"/>
+    <tableColumn id="9" name="Resi Tax Code" dataDxfId="17"/>
+    <tableColumn id="10" name="IND Tax Code" dataDxfId="16"/>
+    <tableColumn id="11" name="TERR Code" dataDxfId="15"/>
+    <tableColumn id="12" name="Other Code" dataDxfId="14"/>
+    <tableColumn id="13" name="Disposal Code" dataDxfId="13"/>
+    <tableColumn id="14" name="Residential" dataDxfId="12"/>
+    <tableColumn id="15" name="Residential_x000d_ Recycling" dataDxfId="11"/>
+    <tableColumn id="16" name="Yard Waste" dataDxfId="10"/>
+    <tableColumn id="17" name="Commercial" dataDxfId="9"/>
+    <tableColumn id="18" name="Commercial_x000d_ Recycling" dataDxfId="8"/>
+    <tableColumn id="26" name="Commercial Organics" dataDxfId="0"/>
+    <tableColumn id="19" name="Industrial" dataDxfId="7"/>
+    <tableColumn id="20" name="Industrial Recycling" dataDxfId="6"/>
+    <tableColumn id="21" name="Acquisition Code" dataDxfId="5"/>
+    <tableColumn id="22" name="Admin Fee" dataDxfId="4"/>
+    <tableColumn id="23" name="Rate Tax App Code" dataDxfId="3"/>
+    <tableColumn id="24" name="Other Code - Business Center" dataDxfId="2"/>
+    <tableColumn id="25" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3052,10 +3164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y468"/>
+  <dimension ref="A1:Z471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="F469" sqref="F469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,17 +3188,17 @@
     <col min="15" max="15" width="21.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" style="2" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="29" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
+    <col min="18" max="19" width="22.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="29" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3142,28 +3254,31 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>92</v>
       </c>
@@ -3212,11 +3327,11 @@
       <c r="R2" s="2">
         <v>70</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>92</v>
       </c>
@@ -3265,11 +3380,11 @@
       <c r="R3" s="2">
         <v>70</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>92</v>
       </c>
@@ -3318,11 +3433,11 @@
       <c r="R4" s="2">
         <v>70</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>92</v>
       </c>
@@ -3371,11 +3486,11 @@
       <c r="R5" s="2">
         <v>70</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>92</v>
       </c>
@@ -3424,11 +3539,11 @@
       <c r="R6" s="2">
         <v>70</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>92</v>
       </c>
@@ -3477,11 +3592,11 @@
       <c r="R7" s="2">
         <v>70</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>92</v>
       </c>
@@ -3530,11 +3645,11 @@
       <c r="R8" s="2">
         <v>70</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>92</v>
       </c>
@@ -3583,11 +3698,11 @@
       <c r="R9" s="2">
         <v>70</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>92</v>
       </c>
@@ -3636,11 +3751,11 @@
       <c r="R10" s="2">
         <v>70</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>92</v>
       </c>
@@ -3689,11 +3804,11 @@
       <c r="R11" s="2">
         <v>70</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>92</v>
       </c>
@@ -3742,11 +3857,11 @@
       <c r="R12" s="2">
         <v>70</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>92</v>
       </c>
@@ -3795,11 +3910,11 @@
       <c r="R13" s="2">
         <v>70</v>
       </c>
-      <c r="S13" s="2">
+      <c r="T13" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>92</v>
       </c>
@@ -3848,11 +3963,11 @@
       <c r="R14" s="2">
         <v>70</v>
       </c>
-      <c r="S14" s="2">
+      <c r="T14" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>92</v>
       </c>
@@ -3901,11 +4016,11 @@
       <c r="R15" s="2">
         <v>70</v>
       </c>
-      <c r="S15" s="2">
+      <c r="T15" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>92</v>
       </c>
@@ -3954,11 +4069,11 @@
       <c r="R16" s="2">
         <v>70</v>
       </c>
-      <c r="S16" s="2">
+      <c r="T16" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>92</v>
       </c>
@@ -4007,11 +4122,11 @@
       <c r="R17" s="2">
         <v>70</v>
       </c>
-      <c r="S17" s="2">
+      <c r="T17" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>92</v>
       </c>
@@ -4060,11 +4175,11 @@
       <c r="R18" s="2">
         <v>70</v>
       </c>
-      <c r="S18" s="2">
+      <c r="T18" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>92</v>
       </c>
@@ -4113,11 +4228,11 @@
       <c r="R19" s="2">
         <v>70</v>
       </c>
-      <c r="S19" s="2">
+      <c r="T19" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>92</v>
       </c>
@@ -4166,11 +4281,11 @@
       <c r="R20" s="2">
         <v>70</v>
       </c>
-      <c r="S20" s="2">
+      <c r="T20" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>92</v>
       </c>
@@ -4219,11 +4334,11 @@
       <c r="R21" s="2">
         <v>70</v>
       </c>
-      <c r="S21" s="2">
+      <c r="T21" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>92</v>
       </c>
@@ -4272,11 +4387,11 @@
       <c r="R22" s="2">
         <v>70</v>
       </c>
-      <c r="S22" s="2">
+      <c r="T22" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>92</v>
       </c>
@@ -4325,11 +4440,11 @@
       <c r="R23" s="2">
         <v>70</v>
       </c>
-      <c r="S23" s="2">
+      <c r="T23" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>92</v>
       </c>
@@ -4378,11 +4493,11 @@
       <c r="R24" s="2">
         <v>70</v>
       </c>
-      <c r="S24" s="2">
+      <c r="T24" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>92</v>
       </c>
@@ -4431,11 +4546,11 @@
       <c r="R25" s="2">
         <v>70</v>
       </c>
-      <c r="S25" s="2">
+      <c r="T25" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>92</v>
       </c>
@@ -4484,11 +4599,11 @@
       <c r="R26" s="2">
         <v>70</v>
       </c>
-      <c r="S26" s="2">
+      <c r="T26" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>92</v>
       </c>
@@ -4537,11 +4652,11 @@
       <c r="R27" s="2">
         <v>70</v>
       </c>
-      <c r="S27" s="2">
+      <c r="T27" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>92</v>
       </c>
@@ -4590,11 +4705,11 @@
       <c r="R28" s="2">
         <v>70</v>
       </c>
-      <c r="S28" s="2">
+      <c r="T28" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>92</v>
       </c>
@@ -4643,11 +4758,11 @@
       <c r="R29" s="2">
         <v>70</v>
       </c>
-      <c r="S29" s="2">
+      <c r="T29" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>92</v>
       </c>
@@ -4696,11 +4811,11 @@
       <c r="R30" s="2">
         <v>70</v>
       </c>
-      <c r="S30" s="2">
+      <c r="T30" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>92</v>
       </c>
@@ -4749,11 +4864,11 @@
       <c r="R31" s="2">
         <v>70</v>
       </c>
-      <c r="S31" s="2">
+      <c r="T31" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>92</v>
       </c>
@@ -4802,11 +4917,11 @@
       <c r="R32" s="2">
         <v>70</v>
       </c>
-      <c r="S32" s="2">
+      <c r="T32" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>92</v>
       </c>
@@ -4855,11 +4970,11 @@
       <c r="R33" s="2">
         <v>70</v>
       </c>
-      <c r="S33" s="2">
+      <c r="T33" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>92</v>
       </c>
@@ -4908,11 +5023,11 @@
       <c r="R34" s="2">
         <v>70</v>
       </c>
-      <c r="S34" s="2">
+      <c r="T34" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>92</v>
       </c>
@@ -4961,11 +5076,11 @@
       <c r="R35" s="2">
         <v>70</v>
       </c>
-      <c r="S35" s="2">
+      <c r="T35" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>92</v>
       </c>
@@ -5014,11 +5129,11 @@
       <c r="R36" s="2">
         <v>70</v>
       </c>
-      <c r="S36" s="2">
+      <c r="T36" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>92</v>
       </c>
@@ -5067,11 +5182,11 @@
       <c r="R37" s="2">
         <v>70</v>
       </c>
-      <c r="S37" s="2">
+      <c r="T37" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>92</v>
       </c>
@@ -5120,11 +5235,11 @@
       <c r="R38" s="2">
         <v>70</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>92</v>
       </c>
@@ -5173,11 +5288,11 @@
       <c r="R39" s="2">
         <v>70</v>
       </c>
-      <c r="S39" s="2">
+      <c r="T39" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>92</v>
       </c>
@@ -5226,11 +5341,11 @@
       <c r="R40" s="2">
         <v>70</v>
       </c>
-      <c r="S40" s="2">
+      <c r="T40" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>92</v>
       </c>
@@ -5279,11 +5394,11 @@
       <c r="R41" s="2">
         <v>70</v>
       </c>
-      <c r="S41" s="2">
+      <c r="T41" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>92</v>
       </c>
@@ -5332,11 +5447,11 @@
       <c r="R42" s="2">
         <v>70</v>
       </c>
-      <c r="S42" s="2">
+      <c r="T42" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>92</v>
       </c>
@@ -5385,11 +5500,11 @@
       <c r="R43" s="2">
         <v>70</v>
       </c>
-      <c r="S43" s="2">
+      <c r="T43" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>92</v>
       </c>
@@ -5438,11 +5553,11 @@
       <c r="R44" s="2">
         <v>70</v>
       </c>
-      <c r="S44" s="2">
+      <c r="T44" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>92</v>
       </c>
@@ -5491,11 +5606,11 @@
       <c r="R45" s="2">
         <v>70</v>
       </c>
-      <c r="S45" s="2">
+      <c r="T45" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>270</v>
       </c>
@@ -5544,11 +5659,11 @@
       <c r="R46" s="2">
         <v>70</v>
       </c>
-      <c r="S46" s="2">
+      <c r="T46" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>270</v>
       </c>
@@ -5597,11 +5712,11 @@
       <c r="R47" s="2">
         <v>70</v>
       </c>
-      <c r="S47" s="2">
+      <c r="T47" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>270</v>
       </c>
@@ -5650,11 +5765,11 @@
       <c r="R48" s="2">
         <v>70</v>
       </c>
-      <c r="S48" s="2">
+      <c r="T48" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>270</v>
       </c>
@@ -5703,11 +5818,11 @@
       <c r="R49" s="2">
         <v>70</v>
       </c>
-      <c r="S49" s="2">
+      <c r="T49" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>270</v>
       </c>
@@ -5756,11 +5871,11 @@
       <c r="R50" s="2">
         <v>70</v>
       </c>
-      <c r="S50" s="2">
+      <c r="T50" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>270</v>
       </c>
@@ -5809,11 +5924,11 @@
       <c r="R51" s="2">
         <v>70</v>
       </c>
-      <c r="S51" s="2">
+      <c r="T51" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>270</v>
       </c>
@@ -5862,11 +5977,11 @@
       <c r="R52" s="2">
         <v>70</v>
       </c>
-      <c r="S52" s="2">
+      <c r="T52" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>270</v>
       </c>
@@ -5915,11 +6030,11 @@
       <c r="R53" s="2">
         <v>70</v>
       </c>
-      <c r="S53" s="2">
+      <c r="T53" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>270</v>
       </c>
@@ -5968,11 +6083,11 @@
       <c r="R54" s="2">
         <v>70</v>
       </c>
-      <c r="S54" s="2">
+      <c r="T54" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>270</v>
       </c>
@@ -6021,11 +6136,11 @@
       <c r="R55" s="2">
         <v>70</v>
       </c>
-      <c r="S55" s="2">
+      <c r="T55" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>270</v>
       </c>
@@ -6074,11 +6189,11 @@
       <c r="R56" s="2">
         <v>70</v>
       </c>
-      <c r="S56" s="2">
+      <c r="T56" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>270</v>
       </c>
@@ -6127,11 +6242,11 @@
       <c r="R57" s="2">
         <v>70</v>
       </c>
-      <c r="S57" s="2">
+      <c r="T57" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>270</v>
       </c>
@@ -6180,11 +6295,11 @@
       <c r="R58" s="2">
         <v>70</v>
       </c>
-      <c r="S58" s="2">
+      <c r="T58" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>270</v>
       </c>
@@ -6233,11 +6348,11 @@
       <c r="R59" s="2">
         <v>70</v>
       </c>
-      <c r="S59" s="2">
+      <c r="T59" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>270</v>
       </c>
@@ -6286,11 +6401,11 @@
       <c r="R60" s="2">
         <v>70</v>
       </c>
-      <c r="S60" s="2">
+      <c r="T60" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>270</v>
       </c>
@@ -6339,11 +6454,11 @@
       <c r="R61" s="2">
         <v>70</v>
       </c>
-      <c r="S61" s="2">
+      <c r="T61" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>270</v>
       </c>
@@ -6392,11 +6507,11 @@
       <c r="R62" s="2">
         <v>70</v>
       </c>
-      <c r="S62" s="2">
+      <c r="T62" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>384</v>
       </c>
@@ -6442,11 +6557,11 @@
       <c r="R63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S63" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T63" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>384</v>
       </c>
@@ -6492,11 +6607,11 @@
       <c r="R64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S64" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T64" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>384</v>
       </c>
@@ -6542,11 +6657,11 @@
       <c r="R65" s="2">
         <v>70</v>
       </c>
-      <c r="S65" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T65" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>384</v>
       </c>
@@ -6592,11 +6707,11 @@
       <c r="R66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S66" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>384</v>
       </c>
@@ -6642,11 +6757,11 @@
       <c r="R67" s="2">
         <v>70</v>
       </c>
-      <c r="S67" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T67" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>384</v>
       </c>
@@ -6692,11 +6807,11 @@
       <c r="R68" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S68" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T68" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>384</v>
       </c>
@@ -6742,11 +6857,11 @@
       <c r="R69" s="2">
         <v>70</v>
       </c>
-      <c r="S69" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>384</v>
       </c>
@@ -6792,11 +6907,11 @@
       <c r="R70" s="2">
         <v>70</v>
       </c>
-      <c r="S70" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T70" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>384</v>
       </c>
@@ -6842,11 +6957,11 @@
       <c r="R71" s="2">
         <v>70</v>
       </c>
-      <c r="S71" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T71" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>384</v>
       </c>
@@ -6892,11 +7007,11 @@
       <c r="R72" s="2">
         <v>70</v>
       </c>
-      <c r="S72" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T72" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>384</v>
       </c>
@@ -6942,11 +7057,11 @@
       <c r="R73" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S73" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T73" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>384</v>
       </c>
@@ -6992,11 +7107,11 @@
       <c r="R74" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S74" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T74" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>384</v>
       </c>
@@ -7042,11 +7157,11 @@
       <c r="R75" s="2">
         <v>70</v>
       </c>
-      <c r="S75" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T75" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>384</v>
       </c>
@@ -7092,11 +7207,11 @@
       <c r="R76" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S76" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T76" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>384</v>
       </c>
@@ -7142,11 +7257,11 @@
       <c r="R77" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S77" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T77" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>384</v>
       </c>
@@ -7192,11 +7307,11 @@
       <c r="R78" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S78" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>384</v>
       </c>
@@ -7242,11 +7357,11 @@
       <c r="R79" s="2">
         <v>70</v>
       </c>
-      <c r="S79" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T79" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>384</v>
       </c>
@@ -7292,11 +7407,11 @@
       <c r="R80" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S80" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T80" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>384</v>
       </c>
@@ -7342,11 +7457,11 @@
       <c r="R81" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S81" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T81" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>384</v>
       </c>
@@ -7392,11 +7507,11 @@
       <c r="R82" s="2">
         <v>70</v>
       </c>
-      <c r="S82" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>384</v>
       </c>
@@ -7442,11 +7557,11 @@
       <c r="R83" s="2">
         <v>70</v>
       </c>
-      <c r="S83" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T83" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>384</v>
       </c>
@@ -7492,11 +7607,11 @@
       <c r="R84" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S84" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T84" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>384</v>
       </c>
@@ -7542,11 +7657,11 @@
       <c r="R85" s="2">
         <v>70</v>
       </c>
-      <c r="S85" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T85" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>384</v>
       </c>
@@ -7592,11 +7707,11 @@
       <c r="R86" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S86" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T86" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>384</v>
       </c>
@@ -7642,11 +7757,11 @@
       <c r="R87" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S87" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T87" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>384</v>
       </c>
@@ -7692,11 +7807,11 @@
       <c r="R88" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S88" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T88" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>384</v>
       </c>
@@ -7742,11 +7857,11 @@
       <c r="R89" s="2">
         <v>70</v>
       </c>
-      <c r="S89" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T89" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>384</v>
       </c>
@@ -7792,11 +7907,11 @@
       <c r="R90" s="2">
         <v>70</v>
       </c>
-      <c r="S90" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T90" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>384</v>
       </c>
@@ -7842,11 +7957,11 @@
       <c r="R91" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S91" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T91" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>384</v>
       </c>
@@ -7892,11 +8007,11 @@
       <c r="R92" s="2">
         <v>70</v>
       </c>
-      <c r="S92" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T92" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>384</v>
       </c>
@@ -7942,11 +8057,11 @@
       <c r="R93" s="2">
         <v>70</v>
       </c>
-      <c r="S93" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T93" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>384</v>
       </c>
@@ -7992,11 +8107,11 @@
       <c r="R94" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S94" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T94" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>384</v>
       </c>
@@ -8042,11 +8157,11 @@
       <c r="R95" s="2">
         <v>70</v>
       </c>
-      <c r="S95" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T95" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>384</v>
       </c>
@@ -8092,11 +8207,11 @@
       <c r="R96" s="2">
         <v>70</v>
       </c>
-      <c r="S96" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T96" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>384</v>
       </c>
@@ -8142,11 +8257,11 @@
       <c r="R97" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S97" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T97" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>384</v>
       </c>
@@ -8192,11 +8307,11 @@
       <c r="R98" s="2">
         <v>70</v>
       </c>
-      <c r="S98" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T98" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>384</v>
       </c>
@@ -8242,11 +8357,11 @@
       <c r="R99" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S99" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T99" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>384</v>
       </c>
@@ -8292,11 +8407,11 @@
       <c r="R100" s="2">
         <v>70</v>
       </c>
-      <c r="S100" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T100" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>384</v>
       </c>
@@ -8342,11 +8457,11 @@
       <c r="R101" s="2">
         <v>70</v>
       </c>
-      <c r="S101" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T101" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>384</v>
       </c>
@@ -8392,11 +8507,11 @@
       <c r="R102" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S102" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T102" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>384</v>
       </c>
@@ -8442,11 +8557,11 @@
       <c r="R103" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S103" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T103" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>384</v>
       </c>
@@ -8492,11 +8607,11 @@
       <c r="R104" s="2">
         <v>70</v>
       </c>
-      <c r="S104" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T104" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>384</v>
       </c>
@@ -8542,11 +8657,11 @@
       <c r="R105" s="2">
         <v>70</v>
       </c>
-      <c r="S105" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T105" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>384</v>
       </c>
@@ -8592,11 +8707,11 @@
       <c r="R106" s="2">
         <v>70</v>
       </c>
-      <c r="S106" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T106" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>384</v>
       </c>
@@ -8642,11 +8757,11 @@
       <c r="R107" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S107" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T107" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>384</v>
       </c>
@@ -8692,11 +8807,11 @@
       <c r="R108" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S108" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T108" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>384</v>
       </c>
@@ -8742,11 +8857,11 @@
       <c r="R109" s="2">
         <v>70</v>
       </c>
-      <c r="S109" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T109" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>384</v>
       </c>
@@ -8792,11 +8907,11 @@
       <c r="R110" s="2">
         <v>70</v>
       </c>
-      <c r="S110" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T110" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>384</v>
       </c>
@@ -8842,11 +8957,11 @@
       <c r="R111" s="2">
         <v>70</v>
       </c>
-      <c r="S111" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T111" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>384</v>
       </c>
@@ -8892,11 +9007,11 @@
       <c r="R112" s="2">
         <v>70</v>
       </c>
-      <c r="S112" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T112" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>384</v>
       </c>
@@ -8942,11 +9057,11 @@
       <c r="R113" s="2">
         <v>70</v>
       </c>
-      <c r="S113" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T113" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>384</v>
       </c>
@@ -8992,11 +9107,11 @@
       <c r="R114" s="2">
         <v>70</v>
       </c>
-      <c r="S114" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T114" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>384</v>
       </c>
@@ -9042,11 +9157,11 @@
       <c r="R115" s="2">
         <v>70</v>
       </c>
-      <c r="S115" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T115" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>384</v>
       </c>
@@ -9092,11 +9207,11 @@
       <c r="R116" s="2">
         <v>70</v>
       </c>
-      <c r="S116" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T116" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>384</v>
       </c>
@@ -9142,11 +9257,11 @@
       <c r="R117" s="2">
         <v>70</v>
       </c>
-      <c r="S117" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T117" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>384</v>
       </c>
@@ -9192,11 +9307,11 @@
       <c r="R118" s="2">
         <v>70</v>
       </c>
-      <c r="S118" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T118" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>384</v>
       </c>
@@ -9242,11 +9357,11 @@
       <c r="R119" s="2">
         <v>70</v>
       </c>
-      <c r="S119" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T119" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>384</v>
       </c>
@@ -9292,11 +9407,11 @@
       <c r="R120" s="2">
         <v>70</v>
       </c>
-      <c r="S120" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T120" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>384</v>
       </c>
@@ -9342,11 +9457,11 @@
       <c r="R121" s="2">
         <v>70</v>
       </c>
-      <c r="S121" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T121" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>384</v>
       </c>
@@ -9392,11 +9507,11 @@
       <c r="R122" s="2">
         <v>70</v>
       </c>
-      <c r="S122" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T122" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>384</v>
       </c>
@@ -9442,11 +9557,11 @@
       <c r="R123" s="2">
         <v>70</v>
       </c>
-      <c r="S123" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T123" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>384</v>
       </c>
@@ -9492,11 +9607,11 @@
       <c r="R124" s="2">
         <v>70</v>
       </c>
-      <c r="S124" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T124" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>384</v>
       </c>
@@ -9542,11 +9657,11 @@
       <c r="R125" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S125" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T125" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>384</v>
       </c>
@@ -9592,11 +9707,11 @@
       <c r="R126" s="2">
         <v>70</v>
       </c>
-      <c r="S126" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T126" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>384</v>
       </c>
@@ -9642,11 +9757,11 @@
       <c r="R127" s="2">
         <v>70</v>
       </c>
-      <c r="S127" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T127" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>384</v>
       </c>
@@ -9692,11 +9807,11 @@
       <c r="R128" s="2">
         <v>70</v>
       </c>
-      <c r="S128" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T128" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>384</v>
       </c>
@@ -9742,11 +9857,11 @@
       <c r="R129" s="2">
         <v>70</v>
       </c>
-      <c r="S129" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T129" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>384</v>
       </c>
@@ -9792,11 +9907,11 @@
       <c r="R130" s="2">
         <v>70</v>
       </c>
-      <c r="S130" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T130" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>384</v>
       </c>
@@ -9842,11 +9957,11 @@
       <c r="R131" s="2">
         <v>70</v>
       </c>
-      <c r="S131" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T131" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>384</v>
       </c>
@@ -9892,11 +10007,11 @@
       <c r="R132" s="2">
         <v>70</v>
       </c>
-      <c r="S132" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T132" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>384</v>
       </c>
@@ -9942,11 +10057,11 @@
       <c r="R133" s="2">
         <v>70</v>
       </c>
-      <c r="S133" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T133" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>384</v>
       </c>
@@ -9992,11 +10107,11 @@
       <c r="R134" s="2">
         <v>70</v>
       </c>
-      <c r="S134" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T134" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>384</v>
       </c>
@@ -10042,11 +10157,11 @@
       <c r="R135" s="2">
         <v>70</v>
       </c>
-      <c r="S135" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T135" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>388</v>
       </c>
@@ -10092,14 +10207,14 @@
       <c r="R136" s="2">
         <v>70</v>
       </c>
-      <c r="S136" s="2">
-        <v>20</v>
-      </c>
       <c r="T136" s="2">
+        <v>20</v>
+      </c>
+      <c r="U136" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>388</v>
       </c>
@@ -10145,14 +10260,14 @@
       <c r="R137" s="2">
         <v>70</v>
       </c>
-      <c r="S137" s="2">
-        <v>20</v>
-      </c>
       <c r="T137" s="2">
+        <v>20</v>
+      </c>
+      <c r="U137" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>388</v>
       </c>
@@ -10198,14 +10313,14 @@
       <c r="R138" s="2">
         <v>70</v>
       </c>
-      <c r="S138" s="2">
-        <v>20</v>
-      </c>
       <c r="T138" s="2">
+        <v>20</v>
+      </c>
+      <c r="U138" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>388</v>
       </c>
@@ -10251,14 +10366,14 @@
       <c r="R139" s="2">
         <v>70</v>
       </c>
-      <c r="S139" s="2">
-        <v>20</v>
-      </c>
       <c r="T139" s="2">
+        <v>20</v>
+      </c>
+      <c r="U139" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>388</v>
       </c>
@@ -10304,14 +10419,14 @@
       <c r="R140" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S140" s="2">
-        <v>20</v>
-      </c>
       <c r="T140" s="2">
+        <v>20</v>
+      </c>
+      <c r="U140" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>388</v>
       </c>
@@ -10357,14 +10472,14 @@
       <c r="R141" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S141" s="2">
-        <v>20</v>
-      </c>
       <c r="T141" s="2">
+        <v>20</v>
+      </c>
+      <c r="U141" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>388</v>
       </c>
@@ -10410,14 +10525,14 @@
       <c r="R142" s="2">
         <v>70</v>
       </c>
-      <c r="S142" s="2">
-        <v>20</v>
-      </c>
       <c r="T142" s="2">
+        <v>20</v>
+      </c>
+      <c r="U142" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>388</v>
       </c>
@@ -10463,14 +10578,14 @@
       <c r="R143" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S143" s="2">
-        <v>20</v>
-      </c>
       <c r="T143" s="2">
+        <v>20</v>
+      </c>
+      <c r="U143" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>388</v>
       </c>
@@ -10516,14 +10631,14 @@
       <c r="R144" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S144" s="2">
-        <v>20</v>
-      </c>
       <c r="T144" s="2">
+        <v>20</v>
+      </c>
+      <c r="U144" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>388</v>
       </c>
@@ -10569,14 +10684,14 @@
       <c r="R145" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S145" s="2">
-        <v>20</v>
-      </c>
       <c r="T145" s="2">
+        <v>20</v>
+      </c>
+      <c r="U145" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>388</v>
       </c>
@@ -10622,14 +10737,14 @@
       <c r="R146" s="2">
         <v>70</v>
       </c>
-      <c r="S146" s="2">
-        <v>20</v>
-      </c>
       <c r="T146" s="2">
+        <v>20</v>
+      </c>
+      <c r="U146" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>388</v>
       </c>
@@ -10675,14 +10790,14 @@
       <c r="R147" s="2">
         <v>70</v>
       </c>
-      <c r="S147" s="2">
-        <v>20</v>
-      </c>
       <c r="T147" s="2">
+        <v>20</v>
+      </c>
+      <c r="U147" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>388</v>
       </c>
@@ -10728,14 +10843,14 @@
       <c r="R148" s="2">
         <v>70</v>
       </c>
-      <c r="S148" s="2">
-        <v>20</v>
-      </c>
       <c r="T148" s="2">
+        <v>20</v>
+      </c>
+      <c r="U148" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>388</v>
       </c>
@@ -10781,14 +10896,14 @@
       <c r="R149" s="2">
         <v>70</v>
       </c>
-      <c r="S149" s="2">
-        <v>20</v>
-      </c>
       <c r="T149" s="2">
+        <v>20</v>
+      </c>
+      <c r="U149" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>388</v>
       </c>
@@ -10834,14 +10949,14 @@
       <c r="R150" s="2">
         <v>73</v>
       </c>
-      <c r="S150" s="2">
+      <c r="T150" s="2">
         <v>23</v>
       </c>
-      <c r="T150" s="2">
+      <c r="U150" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>388</v>
       </c>
@@ -10887,14 +11002,14 @@
       <c r="R151" s="2">
         <v>73</v>
       </c>
-      <c r="S151" s="2">
+      <c r="T151" s="2">
         <v>23</v>
       </c>
-      <c r="T151" s="2">
+      <c r="U151" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>388</v>
       </c>
@@ -10940,14 +11055,14 @@
       <c r="R152" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S152" s="2">
-        <v>20</v>
-      </c>
       <c r="T152" s="2">
+        <v>20</v>
+      </c>
+      <c r="U152" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>388</v>
       </c>
@@ -10993,14 +11108,14 @@
       <c r="R153" s="2">
         <v>70</v>
       </c>
-      <c r="S153" s="2">
-        <v>20</v>
-      </c>
       <c r="T153" s="2">
+        <v>20</v>
+      </c>
+      <c r="U153" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>388</v>
       </c>
@@ -11046,14 +11161,14 @@
       <c r="R154" s="2">
         <v>70</v>
       </c>
-      <c r="S154" s="2">
-        <v>20</v>
-      </c>
       <c r="T154" s="2">
+        <v>20</v>
+      </c>
+      <c r="U154" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>388</v>
       </c>
@@ -11099,14 +11214,14 @@
       <c r="R155" s="2">
         <v>70</v>
       </c>
-      <c r="S155" s="2">
-        <v>20</v>
-      </c>
       <c r="T155" s="2">
+        <v>20</v>
+      </c>
+      <c r="U155" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>388</v>
       </c>
@@ -11152,14 +11267,14 @@
       <c r="R156" s="2">
         <v>70</v>
       </c>
-      <c r="S156" s="2">
-        <v>20</v>
-      </c>
       <c r="T156" s="2">
+        <v>20</v>
+      </c>
+      <c r="U156" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>388</v>
       </c>
@@ -11205,14 +11320,14 @@
       <c r="R157" s="2">
         <v>70</v>
       </c>
-      <c r="S157" s="2">
-        <v>20</v>
-      </c>
       <c r="T157" s="2">
+        <v>20</v>
+      </c>
+      <c r="U157" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>388</v>
       </c>
@@ -11258,14 +11373,14 @@
       <c r="R158" s="2">
         <v>70</v>
       </c>
-      <c r="S158" s="2">
-        <v>20</v>
-      </c>
       <c r="T158" s="2">
+        <v>20</v>
+      </c>
+      <c r="U158" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>388</v>
       </c>
@@ -11311,14 +11426,14 @@
       <c r="R159" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S159" s="2">
+      <c r="T159" s="2">
         <v>23</v>
       </c>
-      <c r="T159" s="2">
+      <c r="U159" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>388</v>
       </c>
@@ -11364,14 +11479,14 @@
       <c r="R160" s="2">
         <v>70</v>
       </c>
-      <c r="S160" s="2">
-        <v>20</v>
-      </c>
       <c r="T160" s="2">
+        <v>20</v>
+      </c>
+      <c r="U160" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>388</v>
       </c>
@@ -11417,14 +11532,14 @@
       <c r="R161" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S161" s="2">
-        <v>20</v>
-      </c>
       <c r="T161" s="2">
+        <v>20</v>
+      </c>
+      <c r="U161" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>388</v>
       </c>
@@ -11470,14 +11585,14 @@
       <c r="R162" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S162" s="2">
+      <c r="T162" s="2">
         <v>23</v>
       </c>
-      <c r="T162" s="2">
+      <c r="U162" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>388</v>
       </c>
@@ -11523,14 +11638,14 @@
       <c r="R163" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S163" s="2">
-        <v>20</v>
-      </c>
       <c r="T163" s="2">
+        <v>20</v>
+      </c>
+      <c r="U163" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>388</v>
       </c>
@@ -11576,14 +11691,14 @@
       <c r="R164" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S164" s="2">
-        <v>20</v>
-      </c>
       <c r="T164" s="2">
+        <v>20</v>
+      </c>
+      <c r="U164" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>388</v>
       </c>
@@ -11629,14 +11744,14 @@
       <c r="R165" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S165" s="2">
-        <v>20</v>
-      </c>
       <c r="T165" s="2">
+        <v>20</v>
+      </c>
+      <c r="U165" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>388</v>
       </c>
@@ -11682,14 +11797,14 @@
       <c r="R166" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S166" s="2">
-        <v>20</v>
-      </c>
       <c r="T166" s="2">
+        <v>20</v>
+      </c>
+      <c r="U166" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>388</v>
       </c>
@@ -11735,14 +11850,14 @@
       <c r="R167" s="2">
         <v>70</v>
       </c>
-      <c r="S167" s="2">
-        <v>20</v>
-      </c>
       <c r="T167" s="2">
+        <v>20</v>
+      </c>
+      <c r="U167" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>388</v>
       </c>
@@ -11788,14 +11903,14 @@
       <c r="R168" s="2">
         <v>73</v>
       </c>
-      <c r="S168" s="2">
+      <c r="T168" s="2">
         <v>23</v>
       </c>
-      <c r="T168" s="2">
+      <c r="U168" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>388</v>
       </c>
@@ -11841,14 +11956,14 @@
       <c r="R169" s="2">
         <v>70</v>
       </c>
-      <c r="S169" s="2">
-        <v>20</v>
-      </c>
       <c r="T169" s="2">
+        <v>20</v>
+      </c>
+      <c r="U169" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>388</v>
       </c>
@@ -11894,14 +12009,14 @@
       <c r="R170" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S170" s="2">
-        <v>20</v>
-      </c>
       <c r="T170" s="2">
+        <v>20</v>
+      </c>
+      <c r="U170" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>388</v>
       </c>
@@ -11947,14 +12062,14 @@
       <c r="R171" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S171" s="2">
-        <v>20</v>
-      </c>
       <c r="T171" s="2">
+        <v>20</v>
+      </c>
+      <c r="U171" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>388</v>
       </c>
@@ -12000,14 +12115,14 @@
       <c r="R172" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S172" s="2">
-        <v>20</v>
-      </c>
       <c r="T172" s="2">
+        <v>20</v>
+      </c>
+      <c r="U172" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>388</v>
       </c>
@@ -12053,14 +12168,14 @@
       <c r="R173" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S173" s="2">
+      <c r="T173" s="2">
         <v>23</v>
       </c>
-      <c r="T173" s="2">
+      <c r="U173" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>388</v>
       </c>
@@ -12106,14 +12221,14 @@
       <c r="R174" s="2">
         <v>73</v>
       </c>
-      <c r="S174" s="2">
+      <c r="T174" s="2">
         <v>23</v>
       </c>
-      <c r="T174" s="2">
+      <c r="U174" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>388</v>
       </c>
@@ -12159,14 +12274,14 @@
       <c r="R175" s="2">
         <v>73</v>
       </c>
-      <c r="S175" s="2">
+      <c r="T175" s="2">
         <v>23</v>
       </c>
-      <c r="T175" s="2">
+      <c r="U175" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>388</v>
       </c>
@@ -12212,14 +12327,14 @@
       <c r="R176" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S176" s="2">
-        <v>20</v>
-      </c>
       <c r="T176" s="2">
+        <v>20</v>
+      </c>
+      <c r="U176" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>388</v>
       </c>
@@ -12265,14 +12380,14 @@
       <c r="R177" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S177" s="2">
-        <v>20</v>
-      </c>
       <c r="T177" s="2">
+        <v>20</v>
+      </c>
+      <c r="U177" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>388</v>
       </c>
@@ -12318,14 +12433,14 @@
       <c r="R178" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S178" s="2">
-        <v>20</v>
-      </c>
       <c r="T178" s="2">
+        <v>20</v>
+      </c>
+      <c r="U178" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>388</v>
       </c>
@@ -12371,14 +12486,14 @@
       <c r="R179" s="2">
         <v>73</v>
       </c>
-      <c r="S179" s="2">
+      <c r="T179" s="2">
         <v>23</v>
       </c>
-      <c r="T179" s="2">
+      <c r="U179" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>388</v>
       </c>
@@ -12424,14 +12539,14 @@
       <c r="R180" s="2">
         <v>73</v>
       </c>
-      <c r="S180" s="2">
+      <c r="T180" s="2">
         <v>23</v>
       </c>
-      <c r="T180" s="2">
+      <c r="U180" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>388</v>
       </c>
@@ -12477,14 +12592,14 @@
       <c r="R181" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S181" s="2">
-        <v>20</v>
-      </c>
       <c r="T181" s="2">
+        <v>20</v>
+      </c>
+      <c r="U181" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>388</v>
       </c>
@@ -12530,14 +12645,14 @@
       <c r="R182" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S182" s="2">
-        <v>20</v>
-      </c>
       <c r="T182" s="2">
+        <v>20</v>
+      </c>
+      <c r="U182" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>388</v>
       </c>
@@ -12583,14 +12698,14 @@
       <c r="R183" s="2">
         <v>70</v>
       </c>
-      <c r="S183" s="2">
-        <v>20</v>
-      </c>
       <c r="T183" s="2">
+        <v>20</v>
+      </c>
+      <c r="U183" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>388</v>
       </c>
@@ -12636,14 +12751,14 @@
       <c r="R184" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S184" s="2">
-        <v>20</v>
-      </c>
       <c r="T184" s="2">
+        <v>20</v>
+      </c>
+      <c r="U184" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>388</v>
       </c>
@@ -12689,14 +12804,14 @@
       <c r="R185" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S185" s="2">
-        <v>20</v>
-      </c>
       <c r="T185" s="2">
+        <v>20</v>
+      </c>
+      <c r="U185" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>388</v>
       </c>
@@ -12742,14 +12857,14 @@
       <c r="R186" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S186" s="2">
-        <v>20</v>
-      </c>
       <c r="T186" s="2">
+        <v>20</v>
+      </c>
+      <c r="U186" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>388</v>
       </c>
@@ -12795,14 +12910,14 @@
       <c r="R187" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S187" s="2">
+      <c r="T187" s="2">
         <v>23</v>
       </c>
-      <c r="T187" s="2">
+      <c r="U187" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>388</v>
       </c>
@@ -12848,14 +12963,14 @@
       <c r="R188" s="2">
         <v>70</v>
       </c>
-      <c r="S188" s="2">
+      <c r="T188" s="2">
         <v>23</v>
       </c>
-      <c r="T188" s="2">
+      <c r="U188" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>388</v>
       </c>
@@ -12901,14 +13016,14 @@
       <c r="R189" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S189" s="2">
+      <c r="T189" s="2">
         <v>23</v>
       </c>
-      <c r="T189" s="2">
+      <c r="U189" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>388</v>
       </c>
@@ -12954,14 +13069,14 @@
       <c r="R190" s="2">
         <v>73</v>
       </c>
-      <c r="S190" s="2">
+      <c r="T190" s="2">
         <v>23</v>
       </c>
-      <c r="T190" s="2">
+      <c r="U190" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>388</v>
       </c>
@@ -13007,14 +13122,14 @@
       <c r="R191" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S191" s="2">
-        <v>20</v>
-      </c>
       <c r="T191" s="2">
+        <v>20</v>
+      </c>
+      <c r="U191" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>388</v>
       </c>
@@ -13060,14 +13175,14 @@
       <c r="R192" s="2">
         <v>70</v>
       </c>
-      <c r="S192" s="2">
-        <v>20</v>
-      </c>
       <c r="T192" s="2">
+        <v>20</v>
+      </c>
+      <c r="U192" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>388</v>
       </c>
@@ -13113,14 +13228,14 @@
       <c r="R193" s="2">
         <v>70</v>
       </c>
-      <c r="S193" s="2">
-        <v>20</v>
-      </c>
       <c r="T193" s="2">
+        <v>20</v>
+      </c>
+      <c r="U193" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>388</v>
       </c>
@@ -13166,14 +13281,14 @@
       <c r="R194" s="2">
         <v>70</v>
       </c>
-      <c r="S194" s="2">
-        <v>20</v>
-      </c>
       <c r="T194" s="2">
+        <v>20</v>
+      </c>
+      <c r="U194" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>388</v>
       </c>
@@ -13219,14 +13334,14 @@
       <c r="R195" s="2">
         <v>70</v>
       </c>
-      <c r="S195" s="2">
-        <v>20</v>
-      </c>
       <c r="T195" s="2">
+        <v>20</v>
+      </c>
+      <c r="U195" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>388</v>
       </c>
@@ -13272,14 +13387,14 @@
       <c r="R196" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S196" s="2">
-        <v>20</v>
-      </c>
       <c r="T196" s="2">
+        <v>20</v>
+      </c>
+      <c r="U196" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>388</v>
       </c>
@@ -13325,14 +13440,14 @@
       <c r="R197" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S197" s="2">
-        <v>20</v>
-      </c>
       <c r="T197" s="2">
+        <v>20</v>
+      </c>
+      <c r="U197" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>388</v>
       </c>
@@ -13378,14 +13493,14 @@
       <c r="R198" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S198" s="2">
-        <v>20</v>
-      </c>
       <c r="T198" s="2">
+        <v>20</v>
+      </c>
+      <c r="U198" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>388</v>
       </c>
@@ -13431,14 +13546,14 @@
       <c r="R199" s="2">
         <v>70</v>
       </c>
-      <c r="S199" s="2">
-        <v>20</v>
-      </c>
       <c r="T199" s="2">
+        <v>20</v>
+      </c>
+      <c r="U199" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>388</v>
       </c>
@@ -13484,14 +13599,14 @@
       <c r="R200" s="2">
         <v>73</v>
       </c>
-      <c r="S200" s="2">
+      <c r="T200" s="2">
         <v>23</v>
       </c>
-      <c r="T200" s="2">
+      <c r="U200" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>388</v>
       </c>
@@ -13537,14 +13652,14 @@
       <c r="R201" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S201" s="2">
-        <v>20</v>
-      </c>
       <c r="T201" s="2">
+        <v>20</v>
+      </c>
+      <c r="U201" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>388</v>
       </c>
@@ -13590,14 +13705,14 @@
       <c r="R202" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S202" s="2">
-        <v>20</v>
-      </c>
       <c r="T202" s="2">
+        <v>20</v>
+      </c>
+      <c r="U202" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>516</v>
       </c>
@@ -13646,11 +13761,11 @@
       <c r="R203" s="2">
         <v>70</v>
       </c>
-      <c r="S203" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T203" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>516</v>
       </c>
@@ -13699,11 +13814,11 @@
       <c r="R204" s="2">
         <v>70</v>
       </c>
-      <c r="S204" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T204" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>516</v>
       </c>
@@ -13752,11 +13867,11 @@
       <c r="R205" s="2">
         <v>70</v>
       </c>
-      <c r="S205" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T205" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>516</v>
       </c>
@@ -13805,11 +13920,11 @@
       <c r="R206" s="2">
         <v>70</v>
       </c>
-      <c r="S206" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T206" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>516</v>
       </c>
@@ -13858,11 +13973,11 @@
       <c r="R207" s="2">
         <v>70</v>
       </c>
-      <c r="S207" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T207" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>516</v>
       </c>
@@ -13911,11 +14026,11 @@
       <c r="R208" s="2">
         <v>70</v>
       </c>
-      <c r="S208" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T208" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>516</v>
       </c>
@@ -13964,11 +14079,11 @@
       <c r="R209" s="2">
         <v>70</v>
       </c>
-      <c r="S209" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T209" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>516</v>
       </c>
@@ -14017,11 +14132,11 @@
       <c r="R210" s="2">
         <v>70</v>
       </c>
-      <c r="S210" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T210" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>516</v>
       </c>
@@ -14070,11 +14185,11 @@
       <c r="R211" s="2">
         <v>70</v>
       </c>
-      <c r="S211" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T211" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>516</v>
       </c>
@@ -14123,11 +14238,11 @@
       <c r="R212" s="2">
         <v>70</v>
       </c>
-      <c r="S212" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T212" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>516</v>
       </c>
@@ -14176,11 +14291,11 @@
       <c r="R213" s="2">
         <v>70</v>
       </c>
-      <c r="S213" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T213" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>516</v>
       </c>
@@ -14229,11 +14344,11 @@
       <c r="R214" s="2">
         <v>70</v>
       </c>
-      <c r="S214" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T214" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>516</v>
       </c>
@@ -14282,11 +14397,11 @@
       <c r="R215" s="2">
         <v>70</v>
       </c>
-      <c r="S215" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T215" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>516</v>
       </c>
@@ -14335,11 +14450,11 @@
       <c r="R216" s="2">
         <v>70</v>
       </c>
-      <c r="S216" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T216" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>516</v>
       </c>
@@ -14388,11 +14503,11 @@
       <c r="R217" s="2">
         <v>70</v>
       </c>
-      <c r="S217" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T217" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>516</v>
       </c>
@@ -14441,11 +14556,11 @@
       <c r="R218" s="2">
         <v>70</v>
       </c>
-      <c r="S218" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T218" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>516</v>
       </c>
@@ -14494,11 +14609,11 @@
       <c r="R219" s="2">
         <v>70</v>
       </c>
-      <c r="S219" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T219" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>516</v>
       </c>
@@ -14547,11 +14662,11 @@
       <c r="R220" s="2">
         <v>70</v>
       </c>
-      <c r="S220" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T220" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>516</v>
       </c>
@@ -14600,11 +14715,11 @@
       <c r="R221" s="2">
         <v>70</v>
       </c>
-      <c r="S221" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T221" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>516</v>
       </c>
@@ -14653,11 +14768,11 @@
       <c r="R222" s="2">
         <v>70</v>
       </c>
-      <c r="S222" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T222" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>516</v>
       </c>
@@ -14703,11 +14818,11 @@
       <c r="R223" s="2">
         <v>70</v>
       </c>
-      <c r="S223" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T223" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>691</v>
       </c>
@@ -14759,14 +14874,14 @@
       <c r="R224" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S224" s="2">
+      <c r="T224" s="2">
         <v>21</v>
       </c>
-      <c r="T224" s="2" t="s">
+      <c r="U224" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>691</v>
       </c>
@@ -14818,14 +14933,14 @@
       <c r="R225" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S225" s="2">
+      <c r="T225" s="2">
         <v>21</v>
       </c>
-      <c r="T225" s="2" t="s">
+      <c r="U225" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>691</v>
       </c>
@@ -14877,14 +14992,14 @@
       <c r="R226" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S226" s="2">
+      <c r="T226" s="2">
         <v>21</v>
       </c>
-      <c r="T226" s="2" t="s">
+      <c r="U226" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>691</v>
       </c>
@@ -14936,14 +15051,14 @@
       <c r="R227" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S227" s="2">
+      <c r="T227" s="2">
         <v>21</v>
       </c>
-      <c r="T227" s="2" t="s">
+      <c r="U227" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>691</v>
       </c>
@@ -14995,14 +15110,14 @@
       <c r="R228" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S228" s="2">
+      <c r="T228" s="2">
         <v>21</v>
       </c>
-      <c r="T228" s="2" t="s">
+      <c r="U228" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>691</v>
       </c>
@@ -15054,14 +15169,14 @@
       <c r="R229" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S229" s="2">
+      <c r="T229" s="2">
         <v>21</v>
       </c>
-      <c r="T229" s="2" t="s">
+      <c r="U229" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>691</v>
       </c>
@@ -15113,14 +15228,14 @@
       <c r="R230" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S230" s="2">
+      <c r="T230" s="2">
         <v>21</v>
       </c>
-      <c r="T230" s="2" t="s">
+      <c r="U230" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>691</v>
       </c>
@@ -15172,14 +15287,14 @@
       <c r="R231" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S231" s="2">
+      <c r="T231" s="2">
         <v>21</v>
       </c>
-      <c r="T231" s="2" t="s">
+      <c r="U231" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>691</v>
       </c>
@@ -15231,14 +15346,14 @@
       <c r="R232" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S232" s="2">
+      <c r="T232" s="2">
         <v>21</v>
       </c>
-      <c r="T232" s="2" t="s">
+      <c r="U232" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>691</v>
       </c>
@@ -15290,14 +15405,14 @@
       <c r="R233" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S233" s="2">
+      <c r="T233" s="2">
         <v>21</v>
       </c>
-      <c r="T233" s="2" t="s">
+      <c r="U233" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>691</v>
       </c>
@@ -15349,14 +15464,14 @@
       <c r="R234" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S234" s="2">
+      <c r="T234" s="2">
         <v>21</v>
       </c>
-      <c r="T234" s="2" t="s">
+      <c r="U234" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>691</v>
       </c>
@@ -15408,14 +15523,14 @@
       <c r="R235" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S235" s="2">
+      <c r="T235" s="2">
         <v>21</v>
       </c>
-      <c r="T235" s="2" t="s">
+      <c r="U235" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>691</v>
       </c>
@@ -15467,14 +15582,14 @@
       <c r="R236" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S236" s="2">
+      <c r="T236" s="2">
         <v>21</v>
       </c>
-      <c r="T236" s="2" t="s">
+      <c r="U236" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>691</v>
       </c>
@@ -15526,14 +15641,14 @@
       <c r="R237" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S237" s="2">
+      <c r="T237" s="2">
         <v>21</v>
       </c>
-      <c r="T237" s="2" t="s">
+      <c r="U237" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>691</v>
       </c>
@@ -15585,14 +15700,14 @@
       <c r="R238" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S238" s="2">
+      <c r="T238" s="2">
         <v>21</v>
       </c>
-      <c r="T238" s="2" t="s">
+      <c r="U238" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>691</v>
       </c>
@@ -15644,14 +15759,14 @@
       <c r="R239" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S239" s="2">
+      <c r="T239" s="2">
         <v>21</v>
       </c>
-      <c r="T239" s="2" t="s">
+      <c r="U239" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>691</v>
       </c>
@@ -15703,14 +15818,14 @@
       <c r="R240" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S240" s="2">
+      <c r="T240" s="2">
         <v>21</v>
       </c>
-      <c r="T240" s="2" t="s">
+      <c r="U240" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>691</v>
       </c>
@@ -15762,14 +15877,14 @@
       <c r="R241" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S241" s="2">
+      <c r="T241" s="2">
         <v>21</v>
       </c>
-      <c r="T241" s="2" t="s">
+      <c r="U241" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>691</v>
       </c>
@@ -15821,14 +15936,14 @@
       <c r="R242" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S242" s="2">
+      <c r="T242" s="2">
         <v>21</v>
       </c>
-      <c r="T242" s="2" t="s">
+      <c r="U242" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>691</v>
       </c>
@@ -15880,14 +15995,14 @@
       <c r="R243" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S243" s="2">
+      <c r="T243" s="2">
         <v>21</v>
       </c>
-      <c r="T243" s="2" t="s">
+      <c r="U243" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>691</v>
       </c>
@@ -15939,14 +16054,14 @@
       <c r="R244" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S244" s="2">
+      <c r="T244" s="2">
         <v>21</v>
       </c>
-      <c r="T244" s="2" t="s">
+      <c r="U244" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>691</v>
       </c>
@@ -15998,14 +16113,14 @@
       <c r="R245" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S245" s="2">
+      <c r="T245" s="2">
         <v>21</v>
       </c>
-      <c r="T245" s="2" t="s">
+      <c r="U245" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>691</v>
       </c>
@@ -16057,14 +16172,14 @@
       <c r="R246" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S246" s="2">
+      <c r="T246" s="2">
         <v>21</v>
       </c>
-      <c r="T246" s="2" t="s">
+      <c r="U246" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>691</v>
       </c>
@@ -16116,14 +16231,14 @@
       <c r="R247" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S247" s="2">
+      <c r="T247" s="2">
         <v>21</v>
       </c>
-      <c r="T247" s="2" t="s">
+      <c r="U247" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>691</v>
       </c>
@@ -16175,14 +16290,14 @@
       <c r="R248" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S248" s="2">
+      <c r="T248" s="2">
         <v>21</v>
       </c>
-      <c r="T248" s="2" t="s">
+      <c r="U248" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>691</v>
       </c>
@@ -16234,14 +16349,14 @@
       <c r="R249" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S249" s="2">
+      <c r="T249" s="2">
         <v>21</v>
       </c>
-      <c r="T249" s="2" t="s">
+      <c r="U249" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>691</v>
       </c>
@@ -16293,14 +16408,14 @@
       <c r="R250" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S250" s="2">
+      <c r="T250" s="2">
         <v>21</v>
       </c>
-      <c r="T250" s="2" t="s">
+      <c r="U250" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>691</v>
       </c>
@@ -16352,14 +16467,14 @@
       <c r="R251" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S251" s="2">
+      <c r="T251" s="2">
         <v>21</v>
       </c>
-      <c r="T251" s="2" t="s">
+      <c r="U251" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>691</v>
       </c>
@@ -16411,14 +16526,14 @@
       <c r="R252" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S252" s="2">
+      <c r="T252" s="2">
         <v>21</v>
       </c>
-      <c r="T252" s="2" t="s">
+      <c r="U252" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>691</v>
       </c>
@@ -16470,14 +16585,14 @@
       <c r="R253" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S253" s="2">
+      <c r="T253" s="2">
         <v>21</v>
       </c>
-      <c r="T253" s="2" t="s">
+      <c r="U253" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>691</v>
       </c>
@@ -16529,14 +16644,14 @@
       <c r="R254" s="2">
         <v>10</v>
       </c>
-      <c r="S254" s="2">
-        <v>20</v>
-      </c>
-      <c r="T254" s="2" t="s">
+      <c r="T254" s="2">
+        <v>20</v>
+      </c>
+      <c r="U254" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>691</v>
       </c>
@@ -16588,14 +16703,14 @@
       <c r="R255" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S255" s="2">
+      <c r="T255" s="2">
         <v>21</v>
       </c>
-      <c r="T255" s="2" t="s">
+      <c r="U255" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>691</v>
       </c>
@@ -16647,14 +16762,14 @@
       <c r="R256" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S256" s="2">
+      <c r="T256" s="2">
         <v>21</v>
       </c>
-      <c r="T256" s="2" t="s">
+      <c r="U256" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>691</v>
       </c>
@@ -16706,14 +16821,14 @@
       <c r="R257" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S257" s="2">
+      <c r="T257" s="2">
         <v>21</v>
       </c>
-      <c r="T257" s="2" t="s">
+      <c r="U257" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>691</v>
       </c>
@@ -16765,14 +16880,14 @@
       <c r="R258" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S258" s="2">
+      <c r="T258" s="2">
         <v>21</v>
       </c>
-      <c r="T258" s="2" t="s">
+      <c r="U258" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>691</v>
       </c>
@@ -16824,14 +16939,14 @@
       <c r="R259" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S259" s="2">
+      <c r="T259" s="2">
         <v>21</v>
       </c>
-      <c r="T259" s="2" t="s">
+      <c r="U259" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>691</v>
       </c>
@@ -16883,14 +16998,14 @@
       <c r="R260" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S260" s="2">
+      <c r="T260" s="2">
         <v>21</v>
       </c>
-      <c r="T260" s="2" t="s">
+      <c r="U260" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>691</v>
       </c>
@@ -16942,14 +17057,14 @@
       <c r="R261" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S261" s="2">
+      <c r="T261" s="2">
         <v>21</v>
       </c>
-      <c r="T261" s="2" t="s">
+      <c r="U261" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>691</v>
       </c>
@@ -17001,14 +17116,14 @@
       <c r="R262" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S262" s="2">
+      <c r="T262" s="2">
         <v>21</v>
       </c>
-      <c r="T262" s="2" t="s">
+      <c r="U262" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>691</v>
       </c>
@@ -17060,14 +17175,14 @@
       <c r="R263" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S263" s="2">
+      <c r="T263" s="2">
         <v>21</v>
       </c>
-      <c r="T263" s="2" t="s">
+      <c r="U263" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>691</v>
       </c>
@@ -17119,14 +17234,14 @@
       <c r="R264" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S264" s="2">
+      <c r="T264" s="2">
         <v>21</v>
       </c>
-      <c r="T264" s="2" t="s">
+      <c r="U264" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>694</v>
       </c>
@@ -17172,23 +17287,23 @@
       <c r="R265" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S265" s="2">
+      <c r="T265" s="2">
         <v>22</v>
       </c>
-      <c r="T265" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U265" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V265" s="2">
-        <v>0</v>
+      <c r="V265" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W265" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X265" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>694</v>
       </c>
@@ -17234,23 +17349,23 @@
       <c r="R266" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S266" s="2">
+      <c r="T266" s="2">
         <v>22</v>
       </c>
-      <c r="T266" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U266" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V266" s="2">
-        <v>0</v>
+      <c r="V266" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W266" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X266" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>694</v>
       </c>
@@ -17296,23 +17411,23 @@
       <c r="R267" s="2">
         <v>12</v>
       </c>
-      <c r="S267" s="2">
+      <c r="T267" s="2">
         <v>22</v>
       </c>
-      <c r="T267" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U267" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V267" s="2">
-        <v>0</v>
+      <c r="V267" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W267" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X267" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>694</v>
       </c>
@@ -17358,23 +17473,23 @@
       <c r="R268" s="2">
         <v>75</v>
       </c>
-      <c r="S268" s="2">
+      <c r="T268" s="2">
         <v>25</v>
       </c>
-      <c r="T268" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U268" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V268" s="2">
-        <v>0</v>
+      <c r="V268" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W268" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X268" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>694</v>
       </c>
@@ -17420,23 +17535,23 @@
       <c r="R269" s="2">
         <v>75</v>
       </c>
-      <c r="S269" s="2">
+      <c r="T269" s="2">
         <v>25</v>
       </c>
-      <c r="T269" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U269" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V269" s="2">
-        <v>0</v>
+      <c r="V269" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W269" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X269" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>694</v>
       </c>
@@ -17482,23 +17597,23 @@
       <c r="R270" s="2">
         <v>12</v>
       </c>
-      <c r="S270" s="2">
+      <c r="T270" s="2">
         <v>22</v>
       </c>
-      <c r="T270" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U270" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V270" s="2">
-        <v>0</v>
+      <c r="V270" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W270" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X270" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>694</v>
       </c>
@@ -17544,23 +17659,23 @@
       <c r="R271" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S271" s="2">
+      <c r="T271" s="2">
         <v>22</v>
       </c>
-      <c r="T271" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U271" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V271" s="2">
-        <v>0</v>
+      <c r="V271" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W271" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X271" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>694</v>
       </c>
@@ -17606,23 +17721,23 @@
       <c r="R272" s="2">
         <v>75</v>
       </c>
-      <c r="S272" s="2">
+      <c r="T272" s="2">
         <v>25</v>
       </c>
-      <c r="T272" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U272" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V272" s="2">
-        <v>0</v>
+      <c r="V272" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W272" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X272" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>694</v>
       </c>
@@ -17668,23 +17783,23 @@
       <c r="R273" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S273" s="2">
+      <c r="T273" s="2">
         <v>22</v>
       </c>
-      <c r="T273" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U273" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V273" s="2">
-        <v>0</v>
+      <c r="V273" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W273" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X273" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>694</v>
       </c>
@@ -17730,23 +17845,23 @@
       <c r="R274" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S274" s="2">
+      <c r="T274" s="2">
         <v>22</v>
       </c>
-      <c r="T274" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U274" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V274" s="2">
-        <v>0</v>
+      <c r="V274" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W274" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X274" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>694</v>
       </c>
@@ -17792,23 +17907,23 @@
       <c r="R275" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S275" s="2">
+      <c r="T275" s="2">
         <v>22</v>
       </c>
-      <c r="T275" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U275" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V275" s="2">
-        <v>0</v>
+      <c r="V275" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W275" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X275" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>694</v>
       </c>
@@ -17854,23 +17969,23 @@
       <c r="R276" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S276" s="2">
+      <c r="T276" s="2">
         <v>22</v>
       </c>
-      <c r="T276" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U276" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V276" s="2">
-        <v>0</v>
+      <c r="V276" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W276" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>694</v>
       </c>
@@ -17916,23 +18031,23 @@
       <c r="R277" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S277" s="2">
+      <c r="T277" s="2">
         <v>22</v>
       </c>
-      <c r="T277" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U277" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V277" s="2">
-        <v>0</v>
+      <c r="V277" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W277" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X277" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>694</v>
       </c>
@@ -17978,23 +18093,23 @@
       <c r="R278" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S278" s="2">
+      <c r="T278" s="2">
         <v>22</v>
       </c>
-      <c r="T278" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U278" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V278" s="2">
-        <v>0</v>
+      <c r="V278" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W278" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X278" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>694</v>
       </c>
@@ -18040,23 +18155,23 @@
       <c r="R279" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S279" s="2">
+      <c r="T279" s="2">
         <v>22</v>
       </c>
-      <c r="T279" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U279" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V279" s="2">
-        <v>0</v>
+      <c r="V279" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W279" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>694</v>
       </c>
@@ -18102,23 +18217,23 @@
       <c r="R280" s="2">
         <v>75</v>
       </c>
-      <c r="S280" s="2">
+      <c r="T280" s="2">
         <v>25</v>
       </c>
-      <c r="T280" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U280" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V280" s="2">
-        <v>0</v>
+      <c r="V280" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W280" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X280" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>694</v>
       </c>
@@ -18164,23 +18279,23 @@
       <c r="R281" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S281" s="2">
+      <c r="T281" s="2">
         <v>22</v>
       </c>
-      <c r="T281" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U281" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V281" s="2">
-        <v>0</v>
+      <c r="V281" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W281" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>694</v>
       </c>
@@ -18226,23 +18341,23 @@
       <c r="R282" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S282" s="2">
+      <c r="T282" s="2">
         <v>22</v>
       </c>
-      <c r="T282" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U282" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V282" s="2">
-        <v>0</v>
+      <c r="V282" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W282" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X282" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>694</v>
       </c>
@@ -18288,23 +18403,23 @@
       <c r="R283" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S283" s="2">
+      <c r="T283" s="2">
         <v>22</v>
       </c>
-      <c r="T283" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U283" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V283" s="2">
-        <v>0</v>
+      <c r="V283" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W283" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X283" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>694</v>
       </c>
@@ -18350,23 +18465,23 @@
       <c r="R284" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S284" s="2">
+      <c r="T284" s="2">
         <v>22</v>
       </c>
-      <c r="T284" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U284" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V284" s="2">
-        <v>0</v>
+      <c r="V284" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W284" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X284" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>694</v>
       </c>
@@ -18412,23 +18527,23 @@
       <c r="R285" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S285" s="2">
+      <c r="T285" s="2">
         <v>22</v>
       </c>
-      <c r="T285" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U285" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V285" s="2">
-        <v>0</v>
+      <c r="V285" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W285" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>694</v>
       </c>
@@ -18474,26 +18589,26 @@
       <c r="R286" s="2">
         <v>70</v>
       </c>
-      <c r="S286" s="2">
-        <v>20</v>
-      </c>
       <c r="T286" s="2">
         <v>20</v>
       </c>
-      <c r="U286" s="2" t="s">
+      <c r="U286" s="2">
+        <v>20</v>
+      </c>
+      <c r="V286" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="V286" s="2" t="s">
+      <c r="W286" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="W286" s="2" t="s">
+      <c r="X286" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="X286" s="2" t="s">
+      <c r="Y286" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>694</v>
       </c>
@@ -18542,11 +18657,11 @@
       <c r="R287" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S287" s="2">
+      <c r="T287" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>694</v>
       </c>
@@ -18595,11 +18710,11 @@
       <c r="R288" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S288" s="2">
+      <c r="T288" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>694</v>
       </c>
@@ -18648,11 +18763,11 @@
       <c r="R289" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S289" s="2">
+      <c r="T289" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>694</v>
       </c>
@@ -18701,11 +18816,11 @@
       <c r="R290" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S290" s="2">
+      <c r="T290" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>694</v>
       </c>
@@ -18754,11 +18869,11 @@
       <c r="R291" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S291" s="2">
+      <c r="T291" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>694</v>
       </c>
@@ -18807,11 +18922,11 @@
       <c r="R292" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S292" s="2">
+      <c r="T292" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>694</v>
       </c>
@@ -18860,11 +18975,11 @@
       <c r="R293" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S293" s="2">
+      <c r="T293" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>694</v>
       </c>
@@ -18913,11 +19028,11 @@
       <c r="R294" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S294" s="2">
+      <c r="T294" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>694</v>
       </c>
@@ -18966,11 +19081,11 @@
       <c r="R295" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S295" s="2">
+      <c r="T295" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>694</v>
       </c>
@@ -19019,11 +19134,11 @@
       <c r="R296" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S296" s="2">
+      <c r="T296" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>694</v>
       </c>
@@ -19072,11 +19187,11 @@
       <c r="R297" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S297" s="2">
+      <c r="T297" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>694</v>
       </c>
@@ -19125,11 +19240,11 @@
       <c r="R298" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S298" s="2">
+      <c r="T298" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>694</v>
       </c>
@@ -19178,11 +19293,11 @@
       <c r="R299" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S299" s="2">
+      <c r="T299" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>694</v>
       </c>
@@ -19231,11 +19346,11 @@
       <c r="R300" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S300" s="2">
+      <c r="T300" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>694</v>
       </c>
@@ -19284,11 +19399,11 @@
       <c r="R301" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S301" s="2">
+      <c r="T301" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>694</v>
       </c>
@@ -19337,11 +19452,11 @@
       <c r="R302" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S302" s="2">
+      <c r="T302" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>694</v>
       </c>
@@ -19390,11 +19505,11 @@
       <c r="R303" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S303" s="2">
+      <c r="T303" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>694</v>
       </c>
@@ -19443,11 +19558,11 @@
       <c r="R304" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S304" s="2">
+      <c r="T304" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>694</v>
       </c>
@@ -19496,11 +19611,11 @@
       <c r="R305" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S305" s="2">
+      <c r="T305" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>694</v>
       </c>
@@ -19549,11 +19664,11 @@
       <c r="R306" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S306" s="2">
+      <c r="T306" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>694</v>
       </c>
@@ -19602,11 +19717,11 @@
       <c r="R307" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S307" s="2">
+      <c r="T307" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>694</v>
       </c>
@@ -19655,11 +19770,11 @@
       <c r="R308" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S308" s="2">
+      <c r="T308" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>694</v>
       </c>
@@ -19708,11 +19823,11 @@
       <c r="R309" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S309" s="2">
+      <c r="T309" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>694</v>
       </c>
@@ -19761,11 +19876,11 @@
       <c r="R310" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S310" s="2">
+      <c r="T310" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>694</v>
       </c>
@@ -19814,11 +19929,11 @@
       <c r="R311" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S311" s="2">
+      <c r="T311" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>694</v>
       </c>
@@ -19867,11 +19982,11 @@
       <c r="R312" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S312" s="2">
+      <c r="T312" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>694</v>
       </c>
@@ -19920,11 +20035,11 @@
       <c r="R313" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S313" s="2">
+      <c r="T313" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>694</v>
       </c>
@@ -19973,11 +20088,11 @@
       <c r="R314" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S314" s="2">
+      <c r="T314" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>694</v>
       </c>
@@ -20026,11 +20141,11 @@
       <c r="R315" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S315" s="2">
+      <c r="T315" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>694</v>
       </c>
@@ -20079,11 +20194,11 @@
       <c r="R316" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S316" s="2">
+      <c r="T316" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>694</v>
       </c>
@@ -20132,11 +20247,11 @@
       <c r="R317" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S317" s="2">
+      <c r="T317" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>694</v>
       </c>
@@ -20185,11 +20300,11 @@
       <c r="R318" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S318" s="2">
+      <c r="T318" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>694</v>
       </c>
@@ -20238,11 +20353,11 @@
       <c r="R319" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S319" s="2">
+      <c r="T319" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>694</v>
       </c>
@@ -20291,11 +20406,11 @@
       <c r="R320" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S320" s="2">
+      <c r="T320" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>694</v>
       </c>
@@ -20344,11 +20459,11 @@
       <c r="R321" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S321" s="2">
+      <c r="T321" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>694</v>
       </c>
@@ -20397,11 +20512,11 @@
       <c r="R322" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S322" s="2">
+      <c r="T322" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>694</v>
       </c>
@@ -20450,11 +20565,11 @@
       <c r="R323" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S323" s="2">
+      <c r="T323" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>694</v>
       </c>
@@ -20503,11 +20618,11 @@
       <c r="R324" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S324" s="2">
+      <c r="T324" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>694</v>
       </c>
@@ -20556,11 +20671,11 @@
       <c r="R325" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S325" s="2">
+      <c r="T325" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>694</v>
       </c>
@@ -20606,26 +20721,26 @@
       <c r="R326" s="2">
         <v>70</v>
       </c>
-      <c r="S326" s="2">
-        <v>20</v>
-      </c>
       <c r="T326" s="2">
         <v>20</v>
       </c>
-      <c r="U326" s="2" t="s">
+      <c r="U326" s="2">
+        <v>20</v>
+      </c>
+      <c r="V326" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="V326" s="2" t="s">
+      <c r="W326" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="W326" s="2" t="s">
+      <c r="X326" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="X326" s="2" t="s">
+      <c r="Y326" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>694</v>
       </c>
@@ -20671,29 +20786,29 @@
       <c r="R327" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S327" s="2">
-        <v>20</v>
-      </c>
-      <c r="T327" s="2" t="s">
-        <v>29</v>
+      <c r="T327" s="2">
+        <v>20</v>
       </c>
       <c r="U327" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V327" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W327" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W327" s="2" t="s">
+      <c r="X327" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="X327" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y327" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z327" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>694</v>
       </c>
@@ -20739,29 +20854,29 @@
       <c r="R328" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S328" s="2">
-        <v>20</v>
-      </c>
-      <c r="T328" s="2" t="s">
-        <v>29</v>
+      <c r="T328" s="2">
+        <v>20</v>
       </c>
       <c r="U328" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V328" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W328" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W328" s="2" t="s">
+      <c r="X328" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="X328" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y328" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z328" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>694</v>
       </c>
@@ -20807,29 +20922,29 @@
       <c r="R329" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S329" s="2">
-        <v>20</v>
-      </c>
-      <c r="T329" s="2" t="s">
-        <v>29</v>
+      <c r="T329" s="2">
+        <v>20</v>
       </c>
       <c r="U329" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V329" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W329" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W329" s="2" t="s">
+      <c r="X329" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="X329" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y329" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z329" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>694</v>
       </c>
@@ -20875,29 +20990,29 @@
       <c r="R330" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S330" s="2">
-        <v>20</v>
-      </c>
-      <c r="T330" s="2" t="s">
-        <v>29</v>
+      <c r="T330" s="2">
+        <v>20</v>
       </c>
       <c r="U330" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V330" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W330" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W330" s="2" t="s">
+      <c r="X330" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="X330" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y330" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z330" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>694</v>
       </c>
@@ -20943,29 +21058,29 @@
       <c r="R331" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S331" s="2">
-        <v>20</v>
-      </c>
-      <c r="T331" s="2" t="s">
-        <v>29</v>
+      <c r="T331" s="2">
+        <v>20</v>
       </c>
       <c r="U331" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V331" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W331" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W331" s="2" t="s">
+      <c r="X331" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="X331" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y331" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z331" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>694</v>
       </c>
@@ -21011,29 +21126,29 @@
       <c r="R332" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S332" s="2">
-        <v>20</v>
-      </c>
-      <c r="T332" s="2" t="s">
-        <v>29</v>
+      <c r="T332" s="2">
+        <v>20</v>
       </c>
       <c r="U332" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V332" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W332" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W332" s="2" t="s">
+      <c r="X332" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="X332" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y332" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z332" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>694</v>
       </c>
@@ -21079,29 +21194,29 @@
       <c r="R333" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S333" s="2">
-        <v>20</v>
-      </c>
-      <c r="T333" s="2" t="s">
-        <v>29</v>
+      <c r="T333" s="2">
+        <v>20</v>
       </c>
       <c r="U333" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V333" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W333" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W333" s="2" t="s">
+      <c r="X333" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="X333" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y333" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z333" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>694</v>
       </c>
@@ -21147,29 +21262,29 @@
       <c r="R334" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S334" s="2">
-        <v>20</v>
-      </c>
-      <c r="T334" s="2" t="s">
-        <v>29</v>
+      <c r="T334" s="2">
+        <v>20</v>
       </c>
       <c r="U334" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V334" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W334" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W334" s="2" t="s">
+      <c r="X334" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="X334" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y334" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z334" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>694</v>
       </c>
@@ -21215,29 +21330,29 @@
       <c r="R335" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S335" s="2">
-        <v>20</v>
-      </c>
-      <c r="T335" s="2" t="s">
-        <v>29</v>
+      <c r="T335" s="2">
+        <v>20</v>
       </c>
       <c r="U335" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V335" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W335" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W335" s="2" t="s">
+      <c r="X335" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="X335" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y335" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z335" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>694</v>
       </c>
@@ -21283,29 +21398,29 @@
       <c r="R336" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S336" s="2">
-        <v>20</v>
-      </c>
-      <c r="T336" s="2" t="s">
-        <v>29</v>
+      <c r="T336" s="2">
+        <v>20</v>
       </c>
       <c r="U336" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V336" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W336" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W336" s="2" t="s">
+      <c r="X336" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="X336" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y336" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z336" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>694</v>
       </c>
@@ -21351,29 +21466,29 @@
       <c r="R337" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S337" s="2">
-        <v>20</v>
-      </c>
-      <c r="T337" s="2" t="s">
-        <v>29</v>
+      <c r="T337" s="2">
+        <v>20</v>
       </c>
       <c r="U337" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V337" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W337" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W337" s="2" t="s">
+      <c r="X337" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="X337" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y337" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z337" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>694</v>
       </c>
@@ -21419,29 +21534,29 @@
       <c r="R338" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S338" s="2">
-        <v>20</v>
-      </c>
-      <c r="T338" s="2" t="s">
-        <v>29</v>
+      <c r="T338" s="2">
+        <v>20</v>
       </c>
       <c r="U338" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V338" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W338" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W338" s="2" t="s">
+      <c r="X338" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="X338" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y338" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z338" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>694</v>
       </c>
@@ -21487,29 +21602,29 @@
       <c r="R339" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S339" s="2">
-        <v>20</v>
-      </c>
-      <c r="T339" s="2" t="s">
-        <v>29</v>
+      <c r="T339" s="2">
+        <v>20</v>
       </c>
       <c r="U339" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V339" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W339" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W339" s="2" t="s">
+      <c r="X339" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="X339" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y339" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z339" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>694</v>
       </c>
@@ -21555,29 +21670,29 @@
       <c r="R340" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S340" s="2">
-        <v>20</v>
-      </c>
-      <c r="T340" s="2" t="s">
-        <v>29</v>
+      <c r="T340" s="2">
+        <v>20</v>
       </c>
       <c r="U340" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V340" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W340" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W340" s="2" t="s">
+      <c r="X340" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="X340" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y340" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z340" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>694</v>
       </c>
@@ -21623,29 +21738,29 @@
       <c r="R341" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S341" s="2">
-        <v>20</v>
-      </c>
-      <c r="T341" s="2" t="s">
-        <v>29</v>
+      <c r="T341" s="2">
+        <v>20</v>
       </c>
       <c r="U341" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V341" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W341" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W341" s="2" t="s">
+      <c r="X341" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="X341" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y341" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z341" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>694</v>
       </c>
@@ -21691,29 +21806,29 @@
       <c r="R342" s="2">
         <v>10</v>
       </c>
-      <c r="S342" s="2">
-        <v>20</v>
-      </c>
-      <c r="T342" s="2" t="s">
-        <v>29</v>
+      <c r="T342" s="2">
+        <v>20</v>
       </c>
       <c r="U342" s="2" t="s">
         <v>29</v>
       </c>
       <c r="V342" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W342" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="W342" s="2" t="s">
+      <c r="X342" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="X342" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="Y342" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z342" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>782</v>
       </c>
@@ -21766,7 +21881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>782</v>
       </c>
@@ -21819,7 +21934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>782</v>
       </c>
@@ -21872,7 +21987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>782</v>
       </c>
@@ -21925,7 +22040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>782</v>
       </c>
@@ -21978,7 +22093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>782</v>
       </c>
@@ -22031,7 +22146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>782</v>
       </c>
@@ -22084,7 +22199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>782</v>
       </c>
@@ -22137,7 +22252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>782</v>
       </c>
@@ -22190,7 +22305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>782</v>
       </c>
@@ -28116,7 +28231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>866</v>
       </c>
@@ -28166,7 +28281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>866</v>
       </c>
@@ -28216,7 +28331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>866</v>
       </c>
@@ -28266,7 +28381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>866</v>
       </c>
@@ -28314,6 +28429,192 @@
       </c>
       <c r="P468" s="2">
         <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>916</v>
+      </c>
+      <c r="B469" s="2">
+        <v>4916</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="I469" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K469" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="M469" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="N469" s="2">
+        <v>30</v>
+      </c>
+      <c r="O469" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P469" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q469" s="2">
+        <v>10</v>
+      </c>
+      <c r="R469" s="2">
+        <v>70</v>
+      </c>
+      <c r="S469" s="2">
+        <v>72</v>
+      </c>
+      <c r="T469" s="2">
+        <v>20</v>
+      </c>
+      <c r="U469" s="2">
+        <v>20</v>
+      </c>
+      <c r="V469" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="W469" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="X469" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="470" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>916</v>
+      </c>
+      <c r="B470" s="2">
+        <v>4916</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F470" s="2">
+        <v>94560</v>
+      </c>
+      <c r="I470" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K470" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="M470" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="N470" s="2">
+        <v>36</v>
+      </c>
+      <c r="O470" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="P470" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q470" s="2">
+        <v>16</v>
+      </c>
+      <c r="R470" s="2">
+        <v>76</v>
+      </c>
+      <c r="S470" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="T470" s="2">
+        <v>26</v>
+      </c>
+      <c r="U470" s="2">
+        <v>26</v>
+      </c>
+      <c r="V470" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="W470" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="X470" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="471" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
+        <v>916</v>
+      </c>
+      <c r="B471" s="2">
+        <v>4916</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F471" s="2">
+        <v>94587</v>
+      </c>
+      <c r="I471" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K471" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="M471" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="N471" s="2">
+        <v>33</v>
+      </c>
+      <c r="O471" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="P471" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q471" s="2">
+        <v>13</v>
+      </c>
+      <c r="R471" s="2">
+        <v>73</v>
+      </c>
+      <c r="S471" s="2">
+        <v>74</v>
+      </c>
+      <c r="T471" s="2">
+        <v>23</v>
+      </c>
+      <c r="U471" s="2">
+        <v>23</v>
+      </c>
+      <c r="V471" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="W471" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="X471" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
